--- a/詳細設計/グループ開発_詳細設計_池原.xlsx
+++ b/詳細設計/グループ開発_詳細設計_池原.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\groupA\詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B14CE4-098C-42C5-9B7A-A10CA1FCF142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4FE667-4868-492F-9855-FA00FB141643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11250" yWindow="195" windowWidth="12630" windowHeight="12900" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10815" yWindow="0" windowWidth="12990" windowHeight="12900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧" sheetId="2" r:id="rId1"/>
-    <sheet name="クラス名" sheetId="18" r:id="rId2"/>
-    <sheet name="家計データ入力" sheetId="14" r:id="rId3"/>
-    <sheet name="家計簿表示" sheetId="5" r:id="rId4"/>
-    <sheet name="通知" sheetId="10" r:id="rId5"/>
+    <sheet name="家計データ入力" sheetId="14" r:id="rId2"/>
+    <sheet name="家計簿表示" sheetId="5" r:id="rId3"/>
+    <sheet name="通知" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">家計データ入力!$A$1:$BB$82</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">家計簿表示!$A$1:$BA$112</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">家計データ入力!$A$1:$BB$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">家計簿表示!$A$1:$BA$112</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">機能一覧!$A$1:$AX$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">通知!$A$1:$BA$88</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">家計データ入力!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">家計簿表示!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">通知!$A$1:$BA$88</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">家計データ入力!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">家計簿表示!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">機能一覧!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">通知!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">通知!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="215">
   <si>
     <t>機能一覧</t>
     <rPh sb="0" eb="2">
@@ -1974,17 +1973,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Item</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>項目</t>
-    <rPh sb="0" eb="2">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>「確認」ボタンを押したとき、入力フォーム内の値を各</t>
     <rPh sb="1" eb="3">
       <t>カクニン</t>
@@ -2027,13 +2015,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Calendar</t>
-  </si>
-  <si>
-    <t>DB</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>「登録」ボタンを押したとき</t>
     <rPh sb="1" eb="3">
       <t>トウロク</t>
@@ -2041,31 +2022,6 @@
     <rPh sb="8" eb="9">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>action:result</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>resultではどのような処理を行っているのか</t>
-    <rPh sb="13" eb="15">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>どのコントローラーに接続するのか</t>
-    <rPh sb="10" eb="12">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>クラス名：</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -2094,42 +2050,6 @@
     <t>Formクラス名：HomeDataInputForm</t>
     <rPh sb="7" eb="8">
       <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>フィールド名：calender</t>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>getCalendarで値を取得し、支出の欄に表示する</t>
-    <rPh sb="12" eb="13">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シシュツ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>※要相談</t>
-    <rPh sb="1" eb="2">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソウダン</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -2762,13 +2682,6 @@
     <phoneticPr fontId="17"/>
   </si>
   <si>
-    <t>※要相談</t>
-    <rPh sb="1" eb="4">
-      <t>ヨウソウダン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>※display_formの値をもとに入力フォームの表示を行う</t>
     <rPh sb="14" eb="15">
       <t>アタイ</t>
@@ -2781,28 +2694,6 @@
     </rPh>
     <rPh sb="29" eb="30">
       <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>各項目に対応したフォームに入力する値を？？？で取得</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -3046,6 +2937,119 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>※項目名及び入力フォームは５つ表示される</t>
+    <rPh sb="1" eb="3">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>各入力フォームの値をsetCostで保存</t>
+    <rPh sb="0" eb="3">
+      <t>カクニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>※使用するフィールドはcost1,cost2,cost3,cost4,cost5</t>
+    <rPh sb="1" eb="3">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>各項目に対応したフォームに入力する値をgetCostで取得</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>「確認」ボタンを押したとき</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>各項目に対応した入力フォーム内の値をdataテーブルに追加</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>getCalendarで値を取得</t>
+    <rPh sb="12" eb="13">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>フィールド名：calender,user_id,cost1,cost2,cost3,cost4,cost5</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -3721,6 +3725,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3728,33 +3775,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3793,44 +3813,20 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3862,14 +3858,23 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3880,19 +3885,18 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4202,178 +4206,178 @@
   <sheetData>
     <row r="1" spans="2:49" ht="1.1499999999999999" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:49" ht="13.5" customHeight="1" thickTop="1">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="53"/>
-      <c r="AV2" s="53"/>
-      <c r="AW2" s="54"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="59"/>
+      <c r="AT2" s="59"/>
+      <c r="AU2" s="59"/>
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="60"/>
     </row>
     <row r="3" spans="2:49" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="56"/>
-      <c r="AE3" s="56"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="57"/>
-      <c r="AO3" s="57"/>
-      <c r="AP3" s="57"/>
-      <c r="AQ3" s="57"/>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="57"/>
-      <c r="AT3" s="57"/>
-      <c r="AU3" s="57"/>
-      <c r="AV3" s="57"/>
-      <c r="AW3" s="58"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="63"/>
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="64"/>
     </row>
     <row r="4" spans="2:49" ht="13.5" customHeight="1" thickTop="1"/>
     <row r="5" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61" t="s">
+      <c r="C5" s="66"/>
+      <c r="D5" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="61" t="s">
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="61" t="s">
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="62"/>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="62"/>
-      <c r="AF5" s="62"/>
-      <c r="AG5" s="62"/>
-      <c r="AH5" s="62"/>
-      <c r="AI5" s="62"/>
-      <c r="AJ5" s="62"/>
-      <c r="AK5" s="62"/>
-      <c r="AL5" s="62"/>
-      <c r="AM5" s="62"/>
-      <c r="AN5" s="62"/>
-      <c r="AO5" s="62"/>
-      <c r="AP5" s="62"/>
-      <c r="AQ5" s="62"/>
-      <c r="AR5" s="62"/>
-      <c r="AS5" s="62"/>
-      <c r="AT5" s="62"/>
-      <c r="AU5" s="62"/>
-      <c r="AV5" s="62"/>
-      <c r="AW5" s="63"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68"/>
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="68"/>
+      <c r="AF5" s="68"/>
+      <c r="AG5" s="68"/>
+      <c r="AH5" s="68"/>
+      <c r="AI5" s="68"/>
+      <c r="AJ5" s="68"/>
+      <c r="AK5" s="68"/>
+      <c r="AL5" s="68"/>
+      <c r="AM5" s="68"/>
+      <c r="AN5" s="68"/>
+      <c r="AO5" s="68"/>
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="68"/>
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="68"/>
+      <c r="AT5" s="68"/>
+      <c r="AU5" s="68"/>
+      <c r="AV5" s="68"/>
+      <c r="AW5" s="69"/>
     </row>
     <row r="6" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B6" s="43">
+      <c r="B6" s="70">
         <f>MAX($B$5:B5)+1</f>
         <v>1</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45" t="s">
+      <c r="C6" s="71"/>
+      <c r="D6" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="2" t="s">
         <v>99</v>
       </c>
@@ -4422,16 +4426,16 @@
       <c r="AW6" s="4"/>
     </row>
     <row r="7" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B7" s="48">
+      <c r="B7" s="45">
         <v>2</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="40" t="s">
+      <c r="C7" s="46"/>
+      <c r="D7" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="5" t="s">
         <v>12</v>
       </c>
@@ -4480,17 +4484,17 @@
       <c r="AW7" s="7"/>
     </row>
     <row r="8" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B8" s="48">
+      <c r="B8" s="45">
         <f>MAX($B$5:B7)+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="40" t="s">
+      <c r="C8" s="46"/>
+      <c r="D8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
       <c r="H8" s="5" t="s">
         <v>25</v>
       </c>
@@ -4539,17 +4543,17 @@
       <c r="AW8" s="7"/>
     </row>
     <row r="9" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B9" s="48">
+      <c r="B9" s="45">
         <f>MAX($B$5:B8)+1</f>
         <v>4</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="40" t="s">
+      <c r="C9" s="46"/>
+      <c r="D9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
       <c r="H9" s="22" t="s">
         <v>84</v>
       </c>
@@ -4598,17 +4602,17 @@
       <c r="AW9" s="7"/>
     </row>
     <row r="10" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B10" s="48">
+      <c r="B10" s="45">
         <f>MAX($B$5:B9)+1</f>
         <v>5</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="40" t="s">
+      <c r="C10" s="46"/>
+      <c r="D10" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
       <c r="H10" s="5" t="s">
         <v>60</v>
       </c>
@@ -4657,17 +4661,17 @@
       <c r="AW10" s="7"/>
     </row>
     <row r="11" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B11" s="48">
+      <c r="B11" s="45">
         <f>MAX($B$5:B10)+1</f>
         <v>6</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="40" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="22" t="s">
         <v>59</v>
       </c>
@@ -4716,17 +4720,17 @@
       <c r="AW11" s="7"/>
     </row>
     <row r="12" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B12" s="48">
+      <c r="B12" s="45">
         <f>MAX($B$5:B11)+1</f>
         <v>7</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="40" t="s">
+      <c r="C12" s="46"/>
+      <c r="D12" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="5" t="s">
         <v>58</v>
       </c>
@@ -4775,17 +4779,17 @@
       <c r="AW12" s="7"/>
     </row>
     <row r="13" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B13" s="48">
+      <c r="B13" s="45">
         <f>MAX($B$5:B12)+1</f>
         <v>8</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="40" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
       <c r="H13" s="5" t="s">
         <v>57</v>
       </c>
@@ -4834,15 +4838,15 @@
       <c r="AW13" s="7"/>
     </row>
     <row r="14" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B14" s="48">
+      <c r="B14" s="45">
         <f>MAX($B$5:B13)+1</f>
         <v>9</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -4886,15 +4890,15 @@
       <c r="AW14" s="7"/>
     </row>
     <row r="15" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B15" s="48">
+      <c r="B15" s="45">
         <f>MAX($B$5:B14)+1</f>
         <v>10</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="49"/>
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -4939,15 +4943,15 @@
       <c r="AW15" s="7"/>
     </row>
     <row r="16" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B16" s="48">
+      <c r="B16" s="45">
         <f>MAX($B$5:B15)+1</f>
         <v>11</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -4992,15 +4996,15 @@
       <c r="AW16" s="7"/>
     </row>
     <row r="17" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B17" s="48">
+      <c r="B17" s="45">
         <f>MAX($B$5:B16)+1</f>
         <v>12</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
       <c r="H17" s="5"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -5045,15 +5049,15 @@
       <c r="AW17" s="7"/>
     </row>
     <row r="18" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B18" s="48">
+      <c r="B18" s="45">
         <f>MAX($B$5:B17)+1</f>
         <v>13</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
       <c r="H18" s="5"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -5098,15 +5102,15 @@
       <c r="AW18" s="7"/>
     </row>
     <row r="19" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B19" s="48">
+      <c r="B19" s="45">
         <f>MAX($B$5:B18)+1</f>
         <v>14</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
       <c r="H19" s="5"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -5151,15 +5155,15 @@
       <c r="AW19" s="7"/>
     </row>
     <row r="20" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B20" s="48">
+      <c r="B20" s="45">
         <f>MAX($B$5:B19)+1</f>
         <v>15</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
       <c r="H20" s="5"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -5204,15 +5208,15 @@
       <c r="AW20" s="7"/>
     </row>
     <row r="21" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B21" s="48">
+      <c r="B21" s="45">
         <f>MAX($B$5:B20)+1</f>
         <v>16</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -5257,15 +5261,15 @@
       <c r="AW21" s="7"/>
     </row>
     <row r="22" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B22" s="48">
+      <c r="B22" s="45">
         <f>MAX($B$5:B21)+1</f>
         <v>17</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
       <c r="H22" s="5"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -5310,15 +5314,15 @@
       <c r="AW22" s="7"/>
     </row>
     <row r="23" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B23" s="48">
+      <c r="B23" s="45">
         <f>MAX($B$5:B22)+1</f>
         <v>18</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="51"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="49"/>
       <c r="H23" s="5"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -5363,15 +5367,15 @@
       <c r="AW23" s="7"/>
     </row>
     <row r="24" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B24" s="48">
+      <c r="B24" s="45">
         <f>MAX($B$5:B23)+1</f>
         <v>19</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="51"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
       <c r="H24" s="5"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -5416,15 +5420,15 @@
       <c r="AW24" s="7"/>
     </row>
     <row r="25" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B25" s="48">
+      <c r="B25" s="45">
         <f>MAX($B$5:B24)+1</f>
         <v>20</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="49"/>
       <c r="H25" s="5"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -5469,15 +5473,15 @@
       <c r="AW25" s="7"/>
     </row>
     <row r="26" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B26" s="48">
+      <c r="B26" s="45">
         <f>MAX($B$5:B25)+1</f>
         <v>21</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="49"/>
       <c r="H26" s="5"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -5522,15 +5526,15 @@
       <c r="AW26" s="7"/>
     </row>
     <row r="27" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B27" s="48">
+      <c r="B27" s="45">
         <f>MAX($B$5:B26)+1</f>
         <v>22</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="51"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="49"/>
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -5575,15 +5579,15 @@
       <c r="AW27" s="7"/>
     </row>
     <row r="28" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B28" s="48">
+      <c r="B28" s="45">
         <f>MAX($B$5:B27)+1</f>
         <v>23</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="51"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="49"/>
       <c r="H28" s="5"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -5628,15 +5632,15 @@
       <c r="AW28" s="7"/>
     </row>
     <row r="29" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B29" s="48">
+      <c r="B29" s="45">
         <f>MAX($B$5:B28)+1</f>
         <v>24</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="51"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="49"/>
       <c r="H29" s="5"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -5681,15 +5685,15 @@
       <c r="AW29" s="7"/>
     </row>
     <row r="30" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B30" s="48">
+      <c r="B30" s="45">
         <f>MAX($B$5:B29)+1</f>
         <v>25</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="51"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="49"/>
       <c r="H30" s="5"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
@@ -5734,15 +5738,15 @@
       <c r="AW30" s="7"/>
     </row>
     <row r="31" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B31" s="48">
+      <c r="B31" s="45">
         <f>MAX($B$5:B30)+1</f>
         <v>26</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="51"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="49"/>
       <c r="H31" s="5"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -5787,15 +5791,15 @@
       <c r="AW31" s="7"/>
     </row>
     <row r="32" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B32" s="48">
+      <c r="B32" s="45">
         <f>MAX($B$5:B31)+1</f>
         <v>27</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="51"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="5"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -5840,15 +5844,15 @@
       <c r="AW32" s="7"/>
     </row>
     <row r="33" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B33" s="48">
+      <c r="B33" s="45">
         <f>MAX($B$5:B32)+1</f>
         <v>28</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="51"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="49"/>
       <c r="H33" s="5"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -5893,15 +5897,15 @@
       <c r="AW33" s="7"/>
     </row>
     <row r="34" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B34" s="48">
+      <c r="B34" s="45">
         <f>MAX($B$5:B33)+1</f>
         <v>29</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="51"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="49"/>
       <c r="H34" s="5"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
@@ -5946,15 +5950,15 @@
       <c r="AW34" s="7"/>
     </row>
     <row r="35" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B35" s="48">
+      <c r="B35" s="45">
         <f>MAX($B$5:B34)+1</f>
         <v>30</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="51"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="49"/>
       <c r="H35" s="5"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -5999,15 +6003,15 @@
       <c r="AW35" s="7"/>
     </row>
     <row r="36" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B36" s="48">
+      <c r="B36" s="45">
         <f>MAX($B$5:B35)+1</f>
         <v>31</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="51"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="49"/>
       <c r="H36" s="5"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
@@ -6052,15 +6056,15 @@
       <c r="AW36" s="7"/>
     </row>
     <row r="37" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B37" s="48">
+      <c r="B37" s="45">
         <f>MAX($B$5:B36)+1</f>
         <v>32</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="51"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="49"/>
       <c r="H37" s="5"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -6105,15 +6109,15 @@
       <c r="AW37" s="7"/>
     </row>
     <row r="38" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B38" s="48">
+      <c r="B38" s="45">
         <f>MAX($B$5:B37)+1</f>
         <v>33</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="51"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="49"/>
       <c r="H38" s="5"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
@@ -6158,15 +6162,15 @@
       <c r="AW38" s="7"/>
     </row>
     <row r="39" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B39" s="48">
+      <c r="B39" s="45">
         <f>MAX($B$5:B38)+1</f>
         <v>34</v>
       </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="64"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="51"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="49"/>
       <c r="H39" s="5"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -6211,15 +6215,15 @@
       <c r="AW39" s="7"/>
     </row>
     <row r="40" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B40" s="48">
+      <c r="B40" s="45">
         <f>MAX($B$5:B39)+1</f>
         <v>35</v>
       </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="51"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="49"/>
       <c r="H40" s="5"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
@@ -6264,15 +6268,15 @@
       <c r="AW40" s="7"/>
     </row>
     <row r="41" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B41" s="48">
+      <c r="B41" s="45">
         <f>MAX($B$5:B40)+1</f>
         <v>36</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="51"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="49"/>
       <c r="H41" s="5"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
@@ -6317,15 +6321,15 @@
       <c r="AW41" s="7"/>
     </row>
     <row r="42" spans="2:49" ht="13.5" customHeight="1">
-      <c r="B42" s="65">
+      <c r="B42" s="50">
         <f>MAX($B$5:B41)+1</f>
         <v>37</v>
       </c>
-      <c r="C42" s="66"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="69"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="54"/>
       <c r="H42" s="8"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -6371,71 +6375,6 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="B2:AW3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="R5:AW5"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="D11:G11"/>
     <mergeCell ref="D12:G12"/>
@@ -6450,6 +6389,71 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B2:AW3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="R5:AW5"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.71" right="0.39" top="0.59" bottom="0.59" header="0.39" footer="0.39"/>
@@ -6461,70 +6465,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9759D4A1-BDD9-43FB-BEB1-95BA4E1D04CE}">
-  <dimension ref="B2:E6"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="E4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
-      <c r="B6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F411DBA-B3E9-4699-9DDF-DED1F781D00B}">
   <dimension ref="A1:EL122"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A53" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y63" sqref="Y63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="15.75"/>
@@ -6538,232 +6483,232 @@
   <sheetData>
     <row r="1" spans="1:142" s="11" customFormat="1" ht="1.1499999999999999" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:142" s="11" customFormat="1" ht="12.75" thickTop="1">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="83" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="AM2" s="83"/>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="83"/>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="84">
+      <c r="AM2" s="81"/>
+      <c r="AN2" s="81"/>
+      <c r="AO2" s="81"/>
+      <c r="AP2" s="81"/>
+      <c r="AQ2" s="81"/>
+      <c r="AR2" s="82">
         <v>43998</v>
       </c>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="85"/>
-      <c r="CJ2" s="86"/>
-      <c r="CK2" s="86"/>
-      <c r="CL2" s="86"/>
-      <c r="CM2" s="86"/>
-      <c r="CN2" s="86"/>
-      <c r="CO2" s="86"/>
-      <c r="CP2" s="86"/>
-      <c r="CQ2" s="86"/>
-      <c r="CR2" s="86"/>
-      <c r="CS2" s="86"/>
-      <c r="CT2" s="86"/>
-      <c r="CU2" s="86"/>
-      <c r="CV2" s="86"/>
-      <c r="CW2" s="86"/>
-      <c r="CX2" s="86"/>
-      <c r="CY2" s="86"/>
-      <c r="CZ2" s="86"/>
-      <c r="DA2" s="86"/>
-      <c r="DB2" s="86"/>
-      <c r="DC2" s="86"/>
-      <c r="DD2" s="86"/>
-      <c r="DE2" s="86"/>
-      <c r="DF2" s="86"/>
-      <c r="DG2" s="86"/>
-      <c r="DH2" s="86"/>
-      <c r="DI2" s="86"/>
-      <c r="DJ2" s="86"/>
-      <c r="DK2" s="86"/>
-      <c r="DL2" s="86"/>
-      <c r="DM2" s="86"/>
-      <c r="DN2" s="86"/>
-      <c r="DO2" s="86"/>
-      <c r="DP2" s="86"/>
-      <c r="DQ2" s="86"/>
-      <c r="DR2" s="86"/>
-      <c r="DS2" s="86"/>
-      <c r="DT2" s="86"/>
-      <c r="DU2" s="86"/>
-      <c r="DV2" s="86"/>
-      <c r="DW2" s="75"/>
-      <c r="DX2" s="75"/>
-      <c r="DY2" s="75"/>
-      <c r="DZ2" s="75"/>
-      <c r="EA2" s="75"/>
-      <c r="EB2" s="75"/>
-      <c r="EC2" s="87"/>
-      <c r="ED2" s="87"/>
-      <c r="EE2" s="87"/>
-      <c r="EF2" s="87"/>
-      <c r="EG2" s="87"/>
-      <c r="EH2" s="87"/>
-      <c r="EI2" s="87"/>
-      <c r="EJ2" s="87"/>
-      <c r="EK2" s="87"/>
-      <c r="EL2" s="87"/>
+      <c r="AS2" s="82"/>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="83"/>
+      <c r="CJ2" s="84"/>
+      <c r="CK2" s="84"/>
+      <c r="CL2" s="84"/>
+      <c r="CM2" s="84"/>
+      <c r="CN2" s="84"/>
+      <c r="CO2" s="84"/>
+      <c r="CP2" s="84"/>
+      <c r="CQ2" s="84"/>
+      <c r="CR2" s="84"/>
+      <c r="CS2" s="84"/>
+      <c r="CT2" s="84"/>
+      <c r="CU2" s="84"/>
+      <c r="CV2" s="84"/>
+      <c r="CW2" s="84"/>
+      <c r="CX2" s="84"/>
+      <c r="CY2" s="84"/>
+      <c r="CZ2" s="84"/>
+      <c r="DA2" s="84"/>
+      <c r="DB2" s="84"/>
+      <c r="DC2" s="84"/>
+      <c r="DD2" s="84"/>
+      <c r="DE2" s="84"/>
+      <c r="DF2" s="84"/>
+      <c r="DG2" s="84"/>
+      <c r="DH2" s="84"/>
+      <c r="DI2" s="84"/>
+      <c r="DJ2" s="84"/>
+      <c r="DK2" s="84"/>
+      <c r="DL2" s="84"/>
+      <c r="DM2" s="84"/>
+      <c r="DN2" s="84"/>
+      <c r="DO2" s="84"/>
+      <c r="DP2" s="84"/>
+      <c r="DQ2" s="84"/>
+      <c r="DR2" s="84"/>
+      <c r="DS2" s="84"/>
+      <c r="DT2" s="84"/>
+      <c r="DU2" s="84"/>
+      <c r="DV2" s="84"/>
+      <c r="DW2" s="85"/>
+      <c r="DX2" s="85"/>
+      <c r="DY2" s="85"/>
+      <c r="DZ2" s="85"/>
+      <c r="EA2" s="85"/>
+      <c r="EB2" s="85"/>
+      <c r="EC2" s="86"/>
+      <c r="ED2" s="86"/>
+      <c r="EE2" s="86"/>
+      <c r="EF2" s="86"/>
+      <c r="EG2" s="86"/>
+      <c r="EH2" s="86"/>
+      <c r="EI2" s="86"/>
+      <c r="EJ2" s="86"/>
+      <c r="EK2" s="86"/>
+      <c r="EL2" s="86"/>
     </row>
     <row r="3" spans="1:142" s="11" customFormat="1" ht="12.75" thickBot="1">
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="81"/>
-      <c r="AI3" s="81"/>
-      <c r="AJ3" s="81"/>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="72" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72"/>
-      <c r="AR3" s="73" t="s">
+      <c r="AM3" s="87"/>
+      <c r="AN3" s="87"/>
+      <c r="AO3" s="87"/>
+      <c r="AP3" s="87"/>
+      <c r="AQ3" s="87"/>
+      <c r="AR3" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="73"/>
-      <c r="AU3" s="73"/>
-      <c r="AV3" s="73"/>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="74"/>
-      <c r="CJ3" s="86"/>
-      <c r="CK3" s="86"/>
-      <c r="CL3" s="86"/>
-      <c r="CM3" s="86"/>
-      <c r="CN3" s="86"/>
-      <c r="CO3" s="86"/>
-      <c r="CP3" s="86"/>
-      <c r="CQ3" s="86"/>
-      <c r="CR3" s="86"/>
-      <c r="CS3" s="86"/>
-      <c r="CT3" s="86"/>
-      <c r="CU3" s="86"/>
-      <c r="CV3" s="86"/>
-      <c r="CW3" s="86"/>
-      <c r="CX3" s="86"/>
-      <c r="CY3" s="86"/>
-      <c r="CZ3" s="86"/>
-      <c r="DA3" s="86"/>
-      <c r="DB3" s="86"/>
-      <c r="DC3" s="86"/>
-      <c r="DD3" s="86"/>
-      <c r="DE3" s="86"/>
-      <c r="DF3" s="86"/>
-      <c r="DG3" s="86"/>
-      <c r="DH3" s="86"/>
-      <c r="DI3" s="86"/>
-      <c r="DJ3" s="86"/>
-      <c r="DK3" s="86"/>
-      <c r="DL3" s="86"/>
-      <c r="DM3" s="86"/>
-      <c r="DN3" s="86"/>
-      <c r="DO3" s="86"/>
-      <c r="DP3" s="86"/>
-      <c r="DQ3" s="86"/>
-      <c r="DR3" s="86"/>
-      <c r="DS3" s="86"/>
-      <c r="DT3" s="86"/>
-      <c r="DU3" s="86"/>
-      <c r="DV3" s="86"/>
-      <c r="DW3" s="75"/>
-      <c r="DX3" s="75"/>
-      <c r="DY3" s="75"/>
-      <c r="DZ3" s="75"/>
-      <c r="EA3" s="75"/>
-      <c r="EB3" s="75"/>
-      <c r="EC3" s="76"/>
-      <c r="ED3" s="76"/>
-      <c r="EE3" s="76"/>
-      <c r="EF3" s="76"/>
-      <c r="EG3" s="76"/>
-      <c r="EH3" s="76"/>
-      <c r="EI3" s="76"/>
-      <c r="EJ3" s="76"/>
-      <c r="EK3" s="76"/>
-      <c r="EL3" s="76"/>
+      <c r="AS3" s="88"/>
+      <c r="AT3" s="88"/>
+      <c r="AU3" s="88"/>
+      <c r="AV3" s="88"/>
+      <c r="AW3" s="88"/>
+      <c r="AX3" s="88"/>
+      <c r="AY3" s="88"/>
+      <c r="AZ3" s="88"/>
+      <c r="BA3" s="89"/>
+      <c r="CJ3" s="84"/>
+      <c r="CK3" s="84"/>
+      <c r="CL3" s="84"/>
+      <c r="CM3" s="84"/>
+      <c r="CN3" s="84"/>
+      <c r="CO3" s="84"/>
+      <c r="CP3" s="84"/>
+      <c r="CQ3" s="84"/>
+      <c r="CR3" s="84"/>
+      <c r="CS3" s="84"/>
+      <c r="CT3" s="84"/>
+      <c r="CU3" s="84"/>
+      <c r="CV3" s="84"/>
+      <c r="CW3" s="84"/>
+      <c r="CX3" s="84"/>
+      <c r="CY3" s="84"/>
+      <c r="CZ3" s="84"/>
+      <c r="DA3" s="84"/>
+      <c r="DB3" s="84"/>
+      <c r="DC3" s="84"/>
+      <c r="DD3" s="84"/>
+      <c r="DE3" s="84"/>
+      <c r="DF3" s="84"/>
+      <c r="DG3" s="84"/>
+      <c r="DH3" s="84"/>
+      <c r="DI3" s="84"/>
+      <c r="DJ3" s="84"/>
+      <c r="DK3" s="84"/>
+      <c r="DL3" s="84"/>
+      <c r="DM3" s="84"/>
+      <c r="DN3" s="84"/>
+      <c r="DO3" s="84"/>
+      <c r="DP3" s="84"/>
+      <c r="DQ3" s="84"/>
+      <c r="DR3" s="84"/>
+      <c r="DS3" s="84"/>
+      <c r="DT3" s="84"/>
+      <c r="DU3" s="84"/>
+      <c r="DV3" s="84"/>
+      <c r="DW3" s="85"/>
+      <c r="DX3" s="85"/>
+      <c r="DY3" s="85"/>
+      <c r="DZ3" s="85"/>
+      <c r="EA3" s="85"/>
+      <c r="EB3" s="85"/>
+      <c r="EC3" s="90"/>
+      <c r="ED3" s="90"/>
+      <c r="EE3" s="90"/>
+      <c r="EF3" s="90"/>
+      <c r="EG3" s="90"/>
+      <c r="EH3" s="90"/>
+      <c r="EI3" s="90"/>
+      <c r="EJ3" s="90"/>
+      <c r="EK3" s="90"/>
+      <c r="EL3" s="90"/>
     </row>
     <row r="4" spans="1:142" ht="16.5" thickTop="1">
       <c r="B4" s="34"/>
@@ -7101,7 +7046,7 @@
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
@@ -7217,7 +7162,7 @@
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
@@ -7545,7 +7490,7 @@
       <c r="C19" s="28"/>
       <c r="D19" s="28"/>
       <c r="F19" s="23" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="H19" s="28"/>
       <c r="I19" s="28"/>
@@ -7602,7 +7547,7 @@
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
       <c r="F20" s="23" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
@@ -7654,7 +7599,7 @@
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
       <c r="F21" s="23" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
@@ -7709,7 +7654,7 @@
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="F22" s="23" t="s">
-        <v>154</v>
+        <v>214</v>
       </c>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
@@ -8043,70 +7988,68 @@
       <c r="AY27" s="28"/>
       <c r="AZ27" s="28"/>
       <c r="BA27" s="28"/>
-      <c r="CJ27" s="90"/>
-      <c r="CK27" s="90"/>
-      <c r="CL27" s="90"/>
-      <c r="CM27" s="90"/>
-      <c r="CN27" s="91"/>
-      <c r="CO27" s="91"/>
-      <c r="CP27" s="91"/>
-      <c r="CQ27" s="91"/>
-      <c r="CR27" s="90"/>
-      <c r="CS27" s="90"/>
-      <c r="CT27" s="90"/>
-      <c r="CU27" s="90"/>
-      <c r="CV27" s="92"/>
-      <c r="CW27" s="92"/>
-      <c r="CX27" s="92"/>
-      <c r="CY27" s="92"/>
-      <c r="CZ27" s="92"/>
-      <c r="DA27" s="92"/>
-      <c r="DB27" s="92"/>
-      <c r="DC27" s="92"/>
-      <c r="DD27" s="92"/>
-      <c r="DE27" s="92"/>
-      <c r="DF27" s="92"/>
-      <c r="DG27" s="92"/>
-      <c r="DH27" s="92"/>
-      <c r="DI27" s="92"/>
-      <c r="DJ27" s="92"/>
-      <c r="DK27" s="92"/>
-      <c r="DL27" s="92"/>
-      <c r="DM27" s="92"/>
-      <c r="DN27" s="92"/>
-      <c r="DO27" s="92"/>
-      <c r="DP27" s="92"/>
-      <c r="DQ27" s="92"/>
-      <c r="DR27" s="92"/>
-      <c r="DS27" s="92"/>
-      <c r="DT27" s="92"/>
-      <c r="DU27" s="92"/>
-      <c r="DV27" s="92"/>
-      <c r="DW27" s="92"/>
-      <c r="DX27" s="92"/>
-      <c r="DY27" s="92"/>
-      <c r="DZ27" s="92"/>
-      <c r="EA27" s="92"/>
-      <c r="EB27" s="92"/>
-      <c r="EC27" s="92"/>
-      <c r="ED27" s="92"/>
-      <c r="EE27" s="92"/>
-      <c r="EF27" s="92"/>
-      <c r="EG27" s="92"/>
-      <c r="EH27" s="92"/>
-      <c r="EI27" s="92"/>
-      <c r="EJ27" s="92"/>
-      <c r="EK27" s="92"/>
-      <c r="EL27" s="92"/>
+      <c r="CJ27" s="91"/>
+      <c r="CK27" s="91"/>
+      <c r="CL27" s="91"/>
+      <c r="CM27" s="91"/>
+      <c r="CN27" s="92"/>
+      <c r="CO27" s="92"/>
+      <c r="CP27" s="92"/>
+      <c r="CQ27" s="92"/>
+      <c r="CR27" s="91"/>
+      <c r="CS27" s="91"/>
+      <c r="CT27" s="91"/>
+      <c r="CU27" s="91"/>
+      <c r="CV27" s="93"/>
+      <c r="CW27" s="93"/>
+      <c r="CX27" s="93"/>
+      <c r="CY27" s="93"/>
+      <c r="CZ27" s="93"/>
+      <c r="DA27" s="93"/>
+      <c r="DB27" s="93"/>
+      <c r="DC27" s="93"/>
+      <c r="DD27" s="93"/>
+      <c r="DE27" s="93"/>
+      <c r="DF27" s="93"/>
+      <c r="DG27" s="93"/>
+      <c r="DH27" s="93"/>
+      <c r="DI27" s="93"/>
+      <c r="DJ27" s="93"/>
+      <c r="DK27" s="93"/>
+      <c r="DL27" s="93"/>
+      <c r="DM27" s="93"/>
+      <c r="DN27" s="93"/>
+      <c r="DO27" s="93"/>
+      <c r="DP27" s="93"/>
+      <c r="DQ27" s="93"/>
+      <c r="DR27" s="93"/>
+      <c r="DS27" s="93"/>
+      <c r="DT27" s="93"/>
+      <c r="DU27" s="93"/>
+      <c r="DV27" s="93"/>
+      <c r="DW27" s="93"/>
+      <c r="DX27" s="93"/>
+      <c r="DY27" s="93"/>
+      <c r="DZ27" s="93"/>
+      <c r="EA27" s="93"/>
+      <c r="EB27" s="93"/>
+      <c r="EC27" s="93"/>
+      <c r="ED27" s="93"/>
+      <c r="EE27" s="93"/>
+      <c r="EF27" s="93"/>
+      <c r="EG27" s="93"/>
+      <c r="EH27" s="93"/>
+      <c r="EI27" s="93"/>
+      <c r="EJ27" s="93"/>
+      <c r="EK27" s="93"/>
+      <c r="EL27" s="93"/>
     </row>
     <row r="28" spans="2:142">
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="N28" s="28"/>
+      <c r="G28" s="23" t="s">
+        <v>207</v>
+      </c>
       <c r="O28" s="28"/>
       <c r="P28" s="28"/>
       <c r="Q28" s="28"/>
@@ -8205,12 +8148,9 @@
     <row r="29" spans="2:142">
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="N29" s="28"/>
+      <c r="F29" s="28" t="s">
+        <v>121</v>
+      </c>
       <c r="O29" s="28"/>
       <c r="P29" s="28"/>
       <c r="Q29" s="28"/>
@@ -8254,13 +8194,10 @@
     <row r="30" spans="2:142">
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
-      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
       <c r="G30" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="J30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
+        <v>120</v>
+      </c>
       <c r="O30" s="28"/>
       <c r="P30" s="28"/>
       <c r="Q30" s="28"/>
@@ -8305,14 +8242,9 @@
     <row r="31" spans="2:142">
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="G31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
+      <c r="G31" s="23" t="s">
+        <v>119</v>
+      </c>
       <c r="O31" s="28"/>
       <c r="P31" s="28"/>
       <c r="Q31" s="28"/>
@@ -8356,9 +8288,10 @@
     <row r="32" spans="2:142">
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
+      <c r="F32" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" s="28"/>
       <c r="O32" s="28"/>
       <c r="P32" s="28"/>
       <c r="Q32" s="28"/>
@@ -8402,13 +8335,6 @@
     <row r="33" spans="2:142">
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="G33" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
       <c r="O33" s="28"/>
       <c r="P33" s="28"/>
       <c r="Q33" s="28"/>
@@ -8452,13 +8378,9 @@
     <row r="34" spans="2:142">
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
       <c r="G34" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
+        <v>141</v>
+      </c>
       <c r="O34" s="28"/>
       <c r="P34" s="28"/>
       <c r="Q34" s="28"/>
@@ -8502,11 +8424,10 @@
     <row r="35" spans="2:142">
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="G35" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="M35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="H35" s="23" t="s">
+        <v>144</v>
+      </c>
       <c r="N35" s="28"/>
       <c r="O35" s="28"/>
       <c r="P35" s="28"/>
@@ -8551,12 +8472,11 @@
     <row r="36" spans="2:142">
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="G36" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="H36" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="N36" s="28"/>
       <c r="O36" s="28"/>
       <c r="P36" s="28"/>
       <c r="Q36" s="28"/>
@@ -8601,13 +8521,13 @@
     <row r="37" spans="2:142">
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="G37" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="H37" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J37" s="28"/>
       <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
       <c r="O37" s="28"/>
       <c r="P37" s="28"/>
       <c r="Q37" s="28"/>
@@ -8651,13 +8571,13 @@
     <row r="38" spans="2:142">
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
-      <c r="G38" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="H38" s="23" t="s">
+        <v>185</v>
+      </c>
       <c r="L38" s="28"/>
       <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
       <c r="O38" s="28"/>
       <c r="P38" s="28"/>
       <c r="Q38" s="28"/>
@@ -8697,71 +8617,71 @@
       <c r="AY38" s="28"/>
       <c r="AZ38" s="28"/>
       <c r="BA38" s="28"/>
-      <c r="CJ38" s="90"/>
-      <c r="CK38" s="90"/>
-      <c r="CL38" s="90"/>
-      <c r="CM38" s="90"/>
-      <c r="CN38" s="91"/>
-      <c r="CO38" s="91"/>
-      <c r="CP38" s="91"/>
-      <c r="CQ38" s="91"/>
-      <c r="CR38" s="90"/>
-      <c r="CS38" s="90"/>
-      <c r="CT38" s="90"/>
-      <c r="CU38" s="90"/>
-      <c r="CV38" s="92"/>
-      <c r="CW38" s="92"/>
-      <c r="CX38" s="92"/>
-      <c r="CY38" s="92"/>
-      <c r="CZ38" s="92"/>
-      <c r="DA38" s="92"/>
-      <c r="DB38" s="92"/>
-      <c r="DC38" s="92"/>
-      <c r="DD38" s="92"/>
-      <c r="DE38" s="92"/>
-      <c r="DF38" s="92"/>
-      <c r="DG38" s="92"/>
-      <c r="DH38" s="92"/>
-      <c r="DI38" s="92"/>
-      <c r="DJ38" s="92"/>
-      <c r="DK38" s="92"/>
-      <c r="DL38" s="92"/>
-      <c r="DM38" s="92"/>
-      <c r="DN38" s="92"/>
-      <c r="DO38" s="92"/>
-      <c r="DP38" s="92"/>
-      <c r="DQ38" s="92"/>
-      <c r="DR38" s="92"/>
-      <c r="DS38" s="92"/>
-      <c r="DT38" s="92"/>
-      <c r="DU38" s="92"/>
-      <c r="DV38" s="92"/>
-      <c r="DW38" s="92"/>
-      <c r="DX38" s="92"/>
-      <c r="DY38" s="92"/>
-      <c r="DZ38" s="92"/>
-      <c r="EA38" s="92"/>
-      <c r="EB38" s="92"/>
-      <c r="EC38" s="92"/>
-      <c r="ED38" s="92"/>
-      <c r="EE38" s="92"/>
-      <c r="EF38" s="92"/>
-      <c r="EG38" s="92"/>
-      <c r="EH38" s="92"/>
-      <c r="EI38" s="92"/>
-      <c r="EJ38" s="92"/>
-      <c r="EK38" s="92"/>
-      <c r="EL38" s="92"/>
+      <c r="CJ38" s="91"/>
+      <c r="CK38" s="91"/>
+      <c r="CL38" s="91"/>
+      <c r="CM38" s="91"/>
+      <c r="CN38" s="92"/>
+      <c r="CO38" s="92"/>
+      <c r="CP38" s="92"/>
+      <c r="CQ38" s="92"/>
+      <c r="CR38" s="91"/>
+      <c r="CS38" s="91"/>
+      <c r="CT38" s="91"/>
+      <c r="CU38" s="91"/>
+      <c r="CV38" s="93"/>
+      <c r="CW38" s="93"/>
+      <c r="CX38" s="93"/>
+      <c r="CY38" s="93"/>
+      <c r="CZ38" s="93"/>
+      <c r="DA38" s="93"/>
+      <c r="DB38" s="93"/>
+      <c r="DC38" s="93"/>
+      <c r="DD38" s="93"/>
+      <c r="DE38" s="93"/>
+      <c r="DF38" s="93"/>
+      <c r="DG38" s="93"/>
+      <c r="DH38" s="93"/>
+      <c r="DI38" s="93"/>
+      <c r="DJ38" s="93"/>
+      <c r="DK38" s="93"/>
+      <c r="DL38" s="93"/>
+      <c r="DM38" s="93"/>
+      <c r="DN38" s="93"/>
+      <c r="DO38" s="93"/>
+      <c r="DP38" s="93"/>
+      <c r="DQ38" s="93"/>
+      <c r="DR38" s="93"/>
+      <c r="DS38" s="93"/>
+      <c r="DT38" s="93"/>
+      <c r="DU38" s="93"/>
+      <c r="DV38" s="93"/>
+      <c r="DW38" s="93"/>
+      <c r="DX38" s="93"/>
+      <c r="DY38" s="93"/>
+      <c r="DZ38" s="93"/>
+      <c r="EA38" s="93"/>
+      <c r="EB38" s="93"/>
+      <c r="EC38" s="93"/>
+      <c r="ED38" s="93"/>
+      <c r="EE38" s="93"/>
+      <c r="EF38" s="93"/>
+      <c r="EG38" s="93"/>
+      <c r="EH38" s="93"/>
+      <c r="EI38" s="93"/>
+      <c r="EJ38" s="93"/>
+      <c r="EK38" s="93"/>
+      <c r="EL38" s="93"/>
     </row>
     <row r="39" spans="2:142">
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
-      <c r="G39" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
+      <c r="H39" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="L39" s="28"/>
       <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
       <c r="O39" s="28"/>
       <c r="P39" s="28"/>
       <c r="Q39" s="28"/>
@@ -8805,13 +8725,13 @@
     <row r="40" spans="2:142">
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
-      <c r="H40" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="I40" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="L40" s="28"/>
       <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
       <c r="O40" s="28"/>
       <c r="P40" s="28"/>
       <c r="Q40" s="28"/>
@@ -8856,8 +8776,12 @@
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
-      <c r="K41" s="28"/>
+      <c r="I41" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="L41" s="28"/>
       <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
       <c r="O41" s="28"/>
       <c r="P41" s="28"/>
       <c r="Q41" s="28"/>
@@ -8902,15 +8826,11 @@
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
-      <c r="E42" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
+      <c r="I42" s="23" t="s">
+        <v>209</v>
+      </c>
       <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
       <c r="O42" s="28"/>
       <c r="P42" s="28"/>
       <c r="Q42" s="28"/>
@@ -8954,17 +8874,8 @@
       <c r="B43" s="28"/>
       <c r="C43" s="28"/>
       <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
       <c r="K43" s="28"/>
       <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
       <c r="O43" s="28"/>
       <c r="P43" s="28"/>
       <c r="Q43" s="28"/>
@@ -9009,12 +8920,11 @@
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="G44" s="28" t="s">
-        <v>115</v>
-      </c>
+      <c r="E44" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G44" s="28"/>
       <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
       <c r="J44" s="28"/>
       <c r="K44" s="28"/>
       <c r="L44" s="28"/>
@@ -9062,13 +8972,15 @@
     <row r="45" spans="2:142">
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
       <c r="E45" s="28"/>
-      <c r="G45" s="28" t="s">
-        <v>114</v>
-      </c>
+      <c r="F45" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
       <c r="I45" s="28"/>
       <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
       <c r="L45" s="28"/>
       <c r="M45" s="28"/>
       <c r="O45" s="28"/>
@@ -9114,15 +9026,14 @@
     <row r="46" spans="2:142">
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
       <c r="E46" s="28"/>
       <c r="G46" s="28" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H46" s="28"/>
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
-      <c r="L46" s="28"/>
+      <c r="K46" s="28"/>
       <c r="M46" s="28"/>
       <c r="O46" s="28"/>
       <c r="P46" s="28"/>
@@ -9167,17 +9078,13 @@
     <row r="47" spans="2:142">
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
       <c r="E47" s="28"/>
-      <c r="F47" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
+      <c r="G47" s="28" t="s">
+        <v>114</v>
+      </c>
       <c r="I47" s="28"/>
-      <c r="L47" s="28"/>
+      <c r="J47" s="28"/>
       <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
       <c r="O47" s="28"/>
       <c r="P47" s="28"/>
       <c r="Q47" s="28"/>
@@ -9224,13 +9131,12 @@
       <c r="D48" s="28"/>
       <c r="E48" s="28"/>
       <c r="G48" s="28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
       <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
       <c r="O48" s="28"/>
       <c r="P48" s="28"/>
       <c r="Q48" s="28"/>
@@ -9277,10 +9183,13 @@
       <c r="D49" s="28"/>
       <c r="E49" s="28"/>
       <c r="F49" s="23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
       <c r="Q49" s="28"/>
       <c r="R49" s="28"/>
       <c r="S49" s="28"/>
@@ -9325,9 +9234,12 @@
       <c r="D50" s="28"/>
       <c r="E50" s="28"/>
       <c r="G50" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="H50" s="30"/>
+        <v>111</v>
+      </c>
+      <c r="H50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
       <c r="Q50" s="28"/>
       <c r="R50" s="28"/>
       <c r="S50" s="28"/>
@@ -9370,6 +9282,14 @@
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
       <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
       <c r="Q51" s="28"/>
       <c r="R51" s="28"/>
       <c r="S51" s="28"/>
@@ -9411,9 +9331,14 @@
     <row r="52" spans="2:142">
       <c r="B52" s="28"/>
       <c r="C52" s="28"/>
-      <c r="F52" s="23" t="s">
-        <v>139</v>
-      </c>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="G52" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="H52" s="30"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
       <c r="Q52" s="28"/>
       <c r="R52" s="28"/>
       <c r="S52" s="28"/>
@@ -9455,9 +9380,9 @@
     <row r="53" spans="2:142">
       <c r="B53" s="28"/>
       <c r="C53" s="28"/>
-      <c r="F53" s="23" t="s">
-        <v>142</v>
-      </c>
+      <c r="D53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
       <c r="Q53" s="28"/>
       <c r="R53" s="28"/>
       <c r="S53" s="28"/>
@@ -9499,8 +9424,13 @@
     <row r="54" spans="2:142">
       <c r="B54" s="28"/>
       <c r="C54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="F54" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
       <c r="Q54" s="28"/>
       <c r="R54" s="28"/>
       <c r="S54" s="28"/>
@@ -9542,9 +9472,13 @@
     <row r="55" spans="2:142">
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
       <c r="F55" s="23" t="s">
-        <v>143</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
       <c r="Q55" s="28"/>
       <c r="R55" s="28"/>
       <c r="S55" s="28"/>
@@ -9586,9 +9520,9 @@
     <row r="56" spans="2:142">
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
-      <c r="G56" s="23" t="s">
-        <v>155</v>
-      </c>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
       <c r="Q56" s="28"/>
       <c r="R56" s="28"/>
       <c r="S56" s="28"/>
@@ -9626,72 +9560,69 @@
       <c r="AY56" s="28"/>
       <c r="AZ56" s="28"/>
       <c r="BA56" s="28"/>
-      <c r="CJ56" s="90"/>
-      <c r="CK56" s="90"/>
-      <c r="CL56" s="90"/>
-      <c r="CM56" s="90"/>
-      <c r="CN56" s="91"/>
-      <c r="CO56" s="91"/>
-      <c r="CP56" s="91"/>
-      <c r="CQ56" s="91"/>
-      <c r="CR56" s="90"/>
-      <c r="CS56" s="90"/>
-      <c r="CT56" s="90"/>
-      <c r="CU56" s="90"/>
-      <c r="CV56" s="92"/>
-      <c r="CW56" s="92"/>
-      <c r="CX56" s="92"/>
-      <c r="CY56" s="92"/>
-      <c r="CZ56" s="92"/>
-      <c r="DA56" s="92"/>
-      <c r="DB56" s="92"/>
-      <c r="DC56" s="92"/>
-      <c r="DD56" s="92"/>
-      <c r="DE56" s="92"/>
-      <c r="DF56" s="92"/>
-      <c r="DG56" s="92"/>
-      <c r="DH56" s="92"/>
-      <c r="DI56" s="92"/>
-      <c r="DJ56" s="92"/>
-      <c r="DK56" s="92"/>
-      <c r="DL56" s="92"/>
-      <c r="DM56" s="92"/>
-      <c r="DN56" s="92"/>
-      <c r="DO56" s="92"/>
-      <c r="DP56" s="92"/>
-      <c r="DQ56" s="92"/>
-      <c r="DR56" s="92"/>
-      <c r="DS56" s="92"/>
-      <c r="DT56" s="92"/>
-      <c r="DU56" s="92"/>
-      <c r="DV56" s="92"/>
-      <c r="DW56" s="92"/>
-      <c r="DX56" s="92"/>
-      <c r="DY56" s="92"/>
-      <c r="DZ56" s="92"/>
-      <c r="EA56" s="92"/>
-      <c r="EB56" s="92"/>
-      <c r="EC56" s="92"/>
-      <c r="ED56" s="92"/>
-      <c r="EE56" s="92"/>
-      <c r="EF56" s="92"/>
-      <c r="EG56" s="92"/>
-      <c r="EH56" s="92"/>
-      <c r="EI56" s="92"/>
-      <c r="EJ56" s="92"/>
-      <c r="EK56" s="92"/>
-      <c r="EL56" s="92"/>
+      <c r="CJ56" s="91"/>
+      <c r="CK56" s="91"/>
+      <c r="CL56" s="91"/>
+      <c r="CM56" s="91"/>
+      <c r="CN56" s="92"/>
+      <c r="CO56" s="92"/>
+      <c r="CP56" s="92"/>
+      <c r="CQ56" s="92"/>
+      <c r="CR56" s="91"/>
+      <c r="CS56" s="91"/>
+      <c r="CT56" s="91"/>
+      <c r="CU56" s="91"/>
+      <c r="CV56" s="93"/>
+      <c r="CW56" s="93"/>
+      <c r="CX56" s="93"/>
+      <c r="CY56" s="93"/>
+      <c r="CZ56" s="93"/>
+      <c r="DA56" s="93"/>
+      <c r="DB56" s="93"/>
+      <c r="DC56" s="93"/>
+      <c r="DD56" s="93"/>
+      <c r="DE56" s="93"/>
+      <c r="DF56" s="93"/>
+      <c r="DG56" s="93"/>
+      <c r="DH56" s="93"/>
+      <c r="DI56" s="93"/>
+      <c r="DJ56" s="93"/>
+      <c r="DK56" s="93"/>
+      <c r="DL56" s="93"/>
+      <c r="DM56" s="93"/>
+      <c r="DN56" s="93"/>
+      <c r="DO56" s="93"/>
+      <c r="DP56" s="93"/>
+      <c r="DQ56" s="93"/>
+      <c r="DR56" s="93"/>
+      <c r="DS56" s="93"/>
+      <c r="DT56" s="93"/>
+      <c r="DU56" s="93"/>
+      <c r="DV56" s="93"/>
+      <c r="DW56" s="93"/>
+      <c r="DX56" s="93"/>
+      <c r="DY56" s="93"/>
+      <c r="DZ56" s="93"/>
+      <c r="EA56" s="93"/>
+      <c r="EB56" s="93"/>
+      <c r="EC56" s="93"/>
+      <c r="ED56" s="93"/>
+      <c r="EE56" s="93"/>
+      <c r="EF56" s="93"/>
+      <c r="EG56" s="93"/>
+      <c r="EH56" s="93"/>
+      <c r="EI56" s="93"/>
+      <c r="EJ56" s="93"/>
+      <c r="EK56" s="93"/>
+      <c r="EL56" s="93"/>
     </row>
     <row r="57" spans="2:142">
       <c r="B57" s="28"/>
       <c r="C57" s="28"/>
-      <c r="G57" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="F57" s="23" t="s">
+        <v>141</v>
+      </c>
       <c r="O57" s="28"/>
       <c r="P57" s="28"/>
       <c r="Q57" s="28"/>
@@ -9737,7 +9668,7 @@
       <c r="C58" s="28"/>
       <c r="D58" s="28"/>
       <c r="G58" s="23" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="Q58" s="28"/>
       <c r="R58" s="28"/>
@@ -9780,10 +9711,10 @@
     <row r="59" spans="2:142">
       <c r="B59" s="28"/>
       <c r="C59" s="28"/>
+      <c r="G59" s="23" t="s">
+        <v>210</v>
+      </c>
       <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
       <c r="O59" s="28"/>
       <c r="P59" s="28"/>
       <c r="Q59" s="28"/>
@@ -9827,12 +9758,9 @@
     <row r="60" spans="2:142">
       <c r="B60" s="28"/>
       <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
+      <c r="G60" s="23" t="s">
+        <v>211</v>
+      </c>
       <c r="O60" s="28"/>
       <c r="P60" s="28"/>
       <c r="Q60" s="28"/>
@@ -9877,12 +9805,10 @@
     <row r="61" spans="2:142">
       <c r="B61" s="28"/>
       <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
+      <c r="H61" s="23" t="s">
+        <v>177</v>
+      </c>
       <c r="L61" s="28"/>
-      <c r="M61" s="28"/>
-      <c r="N61" s="28"/>
       <c r="O61" s="28"/>
       <c r="P61" s="28"/>
       <c r="Q61" s="28"/>
@@ -9926,12 +9852,10 @@
     <row r="62" spans="2:142">
       <c r="B62" s="28"/>
       <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
+      <c r="H62" s="23" t="s">
+        <v>212</v>
+      </c>
       <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="28"/>
       <c r="O62" s="28"/>
       <c r="P62" s="28"/>
       <c r="Q62" s="28"/>
@@ -9975,18 +9899,7 @@
     <row r="63" spans="2:142">
       <c r="B63" s="28"/>
       <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="F63" s="29"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
       <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="28"/>
       <c r="O63" s="28"/>
       <c r="P63" s="28"/>
       <c r="Q63" s="28"/>
@@ -10030,11 +9943,10 @@
     <row r="64" spans="2:142">
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28" t="s">
-        <v>107</v>
-      </c>
+      <c r="E64" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F64" s="29"/>
       <c r="G64" s="28"/>
       <c r="H64" s="28"/>
       <c r="J64" s="28"/>
@@ -10087,16 +9999,14 @@
       <c r="C65" s="28"/>
       <c r="D65" s="28"/>
       <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="29" t="s">
-        <v>106</v>
-      </c>
+      <c r="F65" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G65" s="28"/>
       <c r="H65" s="28"/>
       <c r="J65" s="28"/>
       <c r="K65" s="28"/>
       <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
       <c r="O65" s="28"/>
       <c r="P65" s="28"/>
       <c r="Q65" s="28"/>
@@ -10140,12 +10050,11 @@
     <row r="66" spans="2:142">
       <c r="B66" s="28"/>
       <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="G66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="29" t="s">
+        <v>106</v>
+      </c>
       <c r="H66" s="28"/>
       <c r="J66" s="28"/>
       <c r="K66" s="28"/>
@@ -10197,14 +10106,13 @@
       <c r="C67" s="28"/>
       <c r="D67" s="28"/>
       <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29" t="s">
-        <v>104</v>
-      </c>
+      <c r="F67" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="G67" s="28"/>
       <c r="H67" s="28"/>
       <c r="J67" s="28"/>
       <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
       <c r="M67" s="28"/>
       <c r="N67" s="28"/>
       <c r="O67" s="28"/>
@@ -10251,11 +10159,11 @@
       <c r="B68" s="28"/>
       <c r="C68" s="28"/>
       <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="G68" s="28"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29" t="s">
+        <v>104</v>
+      </c>
       <c r="H68" s="28"/>
       <c r="J68" s="28"/>
       <c r="K68" s="28"/>
@@ -10307,11 +10215,16 @@
       <c r="C69" s="28"/>
       <c r="D69" s="28"/>
       <c r="E69" s="28"/>
-      <c r="F69" s="29"/>
-      <c r="G69" s="28" t="s">
-        <v>102</v>
-      </c>
+      <c r="F69" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G69" s="28"/>
       <c r="H69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
       <c r="Q69" s="28"/>
       <c r="R69" s="28"/>
       <c r="S69" s="28"/>
@@ -10355,15 +10268,11 @@
       <c r="C70" s="28"/>
       <c r="D70" s="28"/>
       <c r="E70" s="28"/>
-      <c r="F70" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="G70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="28" t="s">
+        <v>102</v>
+      </c>
       <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="28"/>
       <c r="M70" s="28"/>
       <c r="N70" s="28"/>
       <c r="O70" s="28"/>
@@ -10409,15 +10318,16 @@
     <row r="71" spans="2:142">
       <c r="B71" s="28"/>
       <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
       <c r="E71" s="28"/>
-      <c r="G71" s="23" t="s">
-        <v>100</v>
-      </c>
+      <c r="F71" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G71" s="29"/>
       <c r="H71" s="28"/>
       <c r="I71" s="28"/>
       <c r="J71" s="28"/>
       <c r="K71" s="28"/>
-      <c r="L71" s="28"/>
       <c r="M71" s="28"/>
       <c r="N71" s="28"/>
       <c r="O71" s="28"/>
@@ -10465,13 +10375,13 @@
       <c r="C72" s="28"/>
       <c r="D72" s="28"/>
       <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
+      <c r="G72" s="23" t="s">
+        <v>100</v>
+      </c>
       <c r="H72" s="28"/>
       <c r="I72" s="28"/>
       <c r="J72" s="28"/>
       <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
       <c r="M72" s="28"/>
       <c r="N72" s="28"/>
       <c r="O72" s="28"/>
@@ -10518,14 +10428,6 @@
       <c r="B73" s="28"/>
       <c r="C73" s="28"/>
       <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
       <c r="M73" s="28"/>
       <c r="N73" s="28"/>
       <c r="O73" s="28"/>
@@ -10567,74 +10469,66 @@
       <c r="AY73" s="28"/>
       <c r="AZ73" s="28"/>
       <c r="BA73" s="28"/>
-      <c r="CJ73" s="90"/>
-      <c r="CK73" s="90"/>
-      <c r="CL73" s="90"/>
-      <c r="CM73" s="90"/>
-      <c r="CN73" s="91"/>
-      <c r="CO73" s="91"/>
-      <c r="CP73" s="91"/>
-      <c r="CQ73" s="91"/>
-      <c r="CR73" s="90"/>
-      <c r="CS73" s="90"/>
-      <c r="CT73" s="90"/>
-      <c r="CU73" s="90"/>
-      <c r="CV73" s="92"/>
-      <c r="CW73" s="92"/>
-      <c r="CX73" s="92"/>
-      <c r="CY73" s="92"/>
-      <c r="CZ73" s="92"/>
-      <c r="DA73" s="92"/>
-      <c r="DB73" s="92"/>
-      <c r="DC73" s="92"/>
-      <c r="DD73" s="92"/>
-      <c r="DE73" s="92"/>
-      <c r="DF73" s="92"/>
-      <c r="DG73" s="92"/>
-      <c r="DH73" s="92"/>
-      <c r="DI73" s="92"/>
-      <c r="DJ73" s="92"/>
-      <c r="DK73" s="92"/>
-      <c r="DL73" s="92"/>
-      <c r="DM73" s="92"/>
-      <c r="DN73" s="92"/>
-      <c r="DO73" s="92"/>
-      <c r="DP73" s="92"/>
-      <c r="DQ73" s="92"/>
-      <c r="DR73" s="92"/>
-      <c r="DS73" s="92"/>
-      <c r="DT73" s="92"/>
-      <c r="DU73" s="92"/>
-      <c r="DV73" s="92"/>
-      <c r="DW73" s="92"/>
-      <c r="DX73" s="92"/>
-      <c r="DY73" s="92"/>
-      <c r="DZ73" s="92"/>
-      <c r="EA73" s="92"/>
-      <c r="EB73" s="92"/>
-      <c r="EC73" s="92"/>
-      <c r="ED73" s="92"/>
-      <c r="EE73" s="92"/>
-      <c r="EF73" s="92"/>
-      <c r="EG73" s="92"/>
-      <c r="EH73" s="92"/>
-      <c r="EI73" s="92"/>
-      <c r="EJ73" s="92"/>
-      <c r="EK73" s="92"/>
-      <c r="EL73" s="92"/>
+      <c r="CJ73" s="91"/>
+      <c r="CK73" s="91"/>
+      <c r="CL73" s="91"/>
+      <c r="CM73" s="91"/>
+      <c r="CN73" s="92"/>
+      <c r="CO73" s="92"/>
+      <c r="CP73" s="92"/>
+      <c r="CQ73" s="92"/>
+      <c r="CR73" s="91"/>
+      <c r="CS73" s="91"/>
+      <c r="CT73" s="91"/>
+      <c r="CU73" s="91"/>
+      <c r="CV73" s="93"/>
+      <c r="CW73" s="93"/>
+      <c r="CX73" s="93"/>
+      <c r="CY73" s="93"/>
+      <c r="CZ73" s="93"/>
+      <c r="DA73" s="93"/>
+      <c r="DB73" s="93"/>
+      <c r="DC73" s="93"/>
+      <c r="DD73" s="93"/>
+      <c r="DE73" s="93"/>
+      <c r="DF73" s="93"/>
+      <c r="DG73" s="93"/>
+      <c r="DH73" s="93"/>
+      <c r="DI73" s="93"/>
+      <c r="DJ73" s="93"/>
+      <c r="DK73" s="93"/>
+      <c r="DL73" s="93"/>
+      <c r="DM73" s="93"/>
+      <c r="DN73" s="93"/>
+      <c r="DO73" s="93"/>
+      <c r="DP73" s="93"/>
+      <c r="DQ73" s="93"/>
+      <c r="DR73" s="93"/>
+      <c r="DS73" s="93"/>
+      <c r="DT73" s="93"/>
+      <c r="DU73" s="93"/>
+      <c r="DV73" s="93"/>
+      <c r="DW73" s="93"/>
+      <c r="DX73" s="93"/>
+      <c r="DY73" s="93"/>
+      <c r="DZ73" s="93"/>
+      <c r="EA73" s="93"/>
+      <c r="EB73" s="93"/>
+      <c r="EC73" s="93"/>
+      <c r="ED73" s="93"/>
+      <c r="EE73" s="93"/>
+      <c r="EF73" s="93"/>
+      <c r="EG73" s="93"/>
+      <c r="EH73" s="93"/>
+      <c r="EI73" s="93"/>
+      <c r="EJ73" s="93"/>
+      <c r="EK73" s="93"/>
+      <c r="EL73" s="93"/>
     </row>
     <row r="74" spans="2:142">
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
       <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="28"/>
       <c r="M74" s="28"/>
       <c r="N74" s="28"/>
       <c r="O74" s="28"/>
@@ -10681,14 +10575,6 @@
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
       <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="28"/>
       <c r="M75" s="28"/>
       <c r="N75" s="28"/>
       <c r="O75" s="28"/>
@@ -10735,16 +10621,6 @@
       <c r="B76" s="28"/>
       <c r="C76" s="28"/>
       <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="28"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="28"/>
       <c r="O76" s="28"/>
       <c r="P76" s="28"/>
       <c r="Q76" s="28"/>
@@ -10789,14 +10665,6 @@
       <c r="B77" s="28"/>
       <c r="C77" s="28"/>
       <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
       <c r="M77" s="28"/>
       <c r="N77" s="28"/>
       <c r="O77" s="28"/>
@@ -10842,15 +10710,6 @@
     <row r="78" spans="2:142">
       <c r="B78" s="28"/>
       <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="28"/>
       <c r="M78" s="28"/>
       <c r="N78" s="28"/>
       <c r="O78" s="28"/>
@@ -13185,16 +13044,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B2:AK3"/>
-    <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="AR2:BA2"/>
-    <mergeCell ref="CJ2:DV3"/>
-    <mergeCell ref="DW2:EB2"/>
-    <mergeCell ref="EC2:EL2"/>
-    <mergeCell ref="AL3:AQ3"/>
-    <mergeCell ref="AR3:BA3"/>
-    <mergeCell ref="DW3:EB3"/>
-    <mergeCell ref="EC3:EL3"/>
+    <mergeCell ref="CJ56:CM56"/>
+    <mergeCell ref="CN56:CQ56"/>
+    <mergeCell ref="CR56:CU56"/>
+    <mergeCell ref="CV56:EL56"/>
+    <mergeCell ref="CJ73:CM73"/>
+    <mergeCell ref="CN73:CQ73"/>
+    <mergeCell ref="CR73:CU73"/>
+    <mergeCell ref="CV73:EL73"/>
     <mergeCell ref="CJ27:CM27"/>
     <mergeCell ref="CN27:CQ27"/>
     <mergeCell ref="CR27:CU27"/>
@@ -13203,14 +13060,16 @@
     <mergeCell ref="CN38:CQ38"/>
     <mergeCell ref="CR38:CU38"/>
     <mergeCell ref="CV38:EL38"/>
-    <mergeCell ref="CJ56:CM56"/>
-    <mergeCell ref="CN56:CQ56"/>
-    <mergeCell ref="CR56:CU56"/>
-    <mergeCell ref="CV56:EL56"/>
-    <mergeCell ref="CJ73:CM73"/>
-    <mergeCell ref="CN73:CQ73"/>
-    <mergeCell ref="CR73:CU73"/>
-    <mergeCell ref="CV73:EL73"/>
+    <mergeCell ref="EC2:EL2"/>
+    <mergeCell ref="AL3:AQ3"/>
+    <mergeCell ref="AR3:BA3"/>
+    <mergeCell ref="DW3:EB3"/>
+    <mergeCell ref="EC3:EL3"/>
+    <mergeCell ref="B2:AK3"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="AR2:BA2"/>
+    <mergeCell ref="CJ2:DV3"/>
+    <mergeCell ref="DW2:EB2"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.71" right="0.39" top="0.59" bottom="0.59" header="0.39" footer="0.39"/>
@@ -13221,12 +13080,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655FE365-9317-404F-85ED-CB715867C8B2}">
   <dimension ref="B1:EL121"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A33" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A93" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="12"/>
@@ -13240,232 +13099,232 @@
   <sheetData>
     <row r="1" spans="2:142" ht="12.75" thickBot="1"/>
     <row r="2" spans="2:142" ht="12.75" thickTop="1">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="83" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="AM2" s="83"/>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="83"/>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="84">
+      <c r="AM2" s="81"/>
+      <c r="AN2" s="81"/>
+      <c r="AO2" s="81"/>
+      <c r="AP2" s="81"/>
+      <c r="AQ2" s="81"/>
+      <c r="AR2" s="82">
         <v>43998</v>
       </c>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="85"/>
-      <c r="CJ2" s="86"/>
-      <c r="CK2" s="86"/>
-      <c r="CL2" s="86"/>
-      <c r="CM2" s="86"/>
-      <c r="CN2" s="86"/>
-      <c r="CO2" s="86"/>
-      <c r="CP2" s="86"/>
-      <c r="CQ2" s="86"/>
-      <c r="CR2" s="86"/>
-      <c r="CS2" s="86"/>
-      <c r="CT2" s="86"/>
-      <c r="CU2" s="86"/>
-      <c r="CV2" s="86"/>
-      <c r="CW2" s="86"/>
-      <c r="CX2" s="86"/>
-      <c r="CY2" s="86"/>
-      <c r="CZ2" s="86"/>
-      <c r="DA2" s="86"/>
-      <c r="DB2" s="86"/>
-      <c r="DC2" s="86"/>
-      <c r="DD2" s="86"/>
-      <c r="DE2" s="86"/>
-      <c r="DF2" s="86"/>
-      <c r="DG2" s="86"/>
-      <c r="DH2" s="86"/>
-      <c r="DI2" s="86"/>
-      <c r="DJ2" s="86"/>
-      <c r="DK2" s="86"/>
-      <c r="DL2" s="86"/>
-      <c r="DM2" s="86"/>
-      <c r="DN2" s="86"/>
-      <c r="DO2" s="86"/>
-      <c r="DP2" s="86"/>
-      <c r="DQ2" s="86"/>
-      <c r="DR2" s="86"/>
-      <c r="DS2" s="86"/>
-      <c r="DT2" s="86"/>
-      <c r="DU2" s="86"/>
-      <c r="DV2" s="86"/>
-      <c r="DW2" s="88"/>
-      <c r="DX2" s="88"/>
-      <c r="DY2" s="88"/>
-      <c r="DZ2" s="88"/>
-      <c r="EA2" s="88"/>
-      <c r="EB2" s="88"/>
-      <c r="EC2" s="87"/>
-      <c r="ED2" s="87"/>
-      <c r="EE2" s="87"/>
-      <c r="EF2" s="87"/>
-      <c r="EG2" s="87"/>
-      <c r="EH2" s="87"/>
-      <c r="EI2" s="87"/>
-      <c r="EJ2" s="87"/>
-      <c r="EK2" s="87"/>
-      <c r="EL2" s="87"/>
+      <c r="AS2" s="82"/>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="83"/>
+      <c r="CJ2" s="84"/>
+      <c r="CK2" s="84"/>
+      <c r="CL2" s="84"/>
+      <c r="CM2" s="84"/>
+      <c r="CN2" s="84"/>
+      <c r="CO2" s="84"/>
+      <c r="CP2" s="84"/>
+      <c r="CQ2" s="84"/>
+      <c r="CR2" s="84"/>
+      <c r="CS2" s="84"/>
+      <c r="CT2" s="84"/>
+      <c r="CU2" s="84"/>
+      <c r="CV2" s="84"/>
+      <c r="CW2" s="84"/>
+      <c r="CX2" s="84"/>
+      <c r="CY2" s="84"/>
+      <c r="CZ2" s="84"/>
+      <c r="DA2" s="84"/>
+      <c r="DB2" s="84"/>
+      <c r="DC2" s="84"/>
+      <c r="DD2" s="84"/>
+      <c r="DE2" s="84"/>
+      <c r="DF2" s="84"/>
+      <c r="DG2" s="84"/>
+      <c r="DH2" s="84"/>
+      <c r="DI2" s="84"/>
+      <c r="DJ2" s="84"/>
+      <c r="DK2" s="84"/>
+      <c r="DL2" s="84"/>
+      <c r="DM2" s="84"/>
+      <c r="DN2" s="84"/>
+      <c r="DO2" s="84"/>
+      <c r="DP2" s="84"/>
+      <c r="DQ2" s="84"/>
+      <c r="DR2" s="84"/>
+      <c r="DS2" s="84"/>
+      <c r="DT2" s="84"/>
+      <c r="DU2" s="84"/>
+      <c r="DV2" s="84"/>
+      <c r="DW2" s="94"/>
+      <c r="DX2" s="94"/>
+      <c r="DY2" s="94"/>
+      <c r="DZ2" s="94"/>
+      <c r="EA2" s="94"/>
+      <c r="EB2" s="94"/>
+      <c r="EC2" s="86"/>
+      <c r="ED2" s="86"/>
+      <c r="EE2" s="86"/>
+      <c r="EF2" s="86"/>
+      <c r="EG2" s="86"/>
+      <c r="EH2" s="86"/>
+      <c r="EI2" s="86"/>
+      <c r="EJ2" s="86"/>
+      <c r="EK2" s="86"/>
+      <c r="EL2" s="86"/>
     </row>
     <row r="3" spans="2:142" ht="12.75" thickBot="1">
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="81"/>
-      <c r="AI3" s="81"/>
-      <c r="AJ3" s="81"/>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="72" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72"/>
-      <c r="AR3" s="73" t="s">
+      <c r="AM3" s="87"/>
+      <c r="AN3" s="87"/>
+      <c r="AO3" s="87"/>
+      <c r="AP3" s="87"/>
+      <c r="AQ3" s="87"/>
+      <c r="AR3" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="73"/>
-      <c r="AU3" s="73"/>
-      <c r="AV3" s="73"/>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="74"/>
-      <c r="CJ3" s="86"/>
-      <c r="CK3" s="86"/>
-      <c r="CL3" s="86"/>
-      <c r="CM3" s="86"/>
-      <c r="CN3" s="86"/>
-      <c r="CO3" s="86"/>
-      <c r="CP3" s="86"/>
-      <c r="CQ3" s="86"/>
-      <c r="CR3" s="86"/>
-      <c r="CS3" s="86"/>
-      <c r="CT3" s="86"/>
-      <c r="CU3" s="86"/>
-      <c r="CV3" s="86"/>
-      <c r="CW3" s="86"/>
-      <c r="CX3" s="86"/>
-      <c r="CY3" s="86"/>
-      <c r="CZ3" s="86"/>
-      <c r="DA3" s="86"/>
-      <c r="DB3" s="86"/>
-      <c r="DC3" s="86"/>
-      <c r="DD3" s="86"/>
-      <c r="DE3" s="86"/>
-      <c r="DF3" s="86"/>
-      <c r="DG3" s="86"/>
-      <c r="DH3" s="86"/>
-      <c r="DI3" s="86"/>
-      <c r="DJ3" s="86"/>
-      <c r="DK3" s="86"/>
-      <c r="DL3" s="86"/>
-      <c r="DM3" s="86"/>
-      <c r="DN3" s="86"/>
-      <c r="DO3" s="86"/>
-      <c r="DP3" s="86"/>
-      <c r="DQ3" s="86"/>
-      <c r="DR3" s="86"/>
-      <c r="DS3" s="86"/>
-      <c r="DT3" s="86"/>
-      <c r="DU3" s="86"/>
-      <c r="DV3" s="86"/>
-      <c r="DW3" s="88"/>
-      <c r="DX3" s="88"/>
-      <c r="DY3" s="88"/>
-      <c r="DZ3" s="88"/>
-      <c r="EA3" s="88"/>
-      <c r="EB3" s="88"/>
-      <c r="EC3" s="76"/>
-      <c r="ED3" s="76"/>
-      <c r="EE3" s="76"/>
-      <c r="EF3" s="76"/>
-      <c r="EG3" s="76"/>
-      <c r="EH3" s="76"/>
-      <c r="EI3" s="76"/>
-      <c r="EJ3" s="76"/>
-      <c r="EK3" s="76"/>
-      <c r="EL3" s="76"/>
+      <c r="AS3" s="88"/>
+      <c r="AT3" s="88"/>
+      <c r="AU3" s="88"/>
+      <c r="AV3" s="88"/>
+      <c r="AW3" s="88"/>
+      <c r="AX3" s="88"/>
+      <c r="AY3" s="88"/>
+      <c r="AZ3" s="88"/>
+      <c r="BA3" s="89"/>
+      <c r="CJ3" s="84"/>
+      <c r="CK3" s="84"/>
+      <c r="CL3" s="84"/>
+      <c r="CM3" s="84"/>
+      <c r="CN3" s="84"/>
+      <c r="CO3" s="84"/>
+      <c r="CP3" s="84"/>
+      <c r="CQ3" s="84"/>
+      <c r="CR3" s="84"/>
+      <c r="CS3" s="84"/>
+      <c r="CT3" s="84"/>
+      <c r="CU3" s="84"/>
+      <c r="CV3" s="84"/>
+      <c r="CW3" s="84"/>
+      <c r="CX3" s="84"/>
+      <c r="CY3" s="84"/>
+      <c r="CZ3" s="84"/>
+      <c r="DA3" s="84"/>
+      <c r="DB3" s="84"/>
+      <c r="DC3" s="84"/>
+      <c r="DD3" s="84"/>
+      <c r="DE3" s="84"/>
+      <c r="DF3" s="84"/>
+      <c r="DG3" s="84"/>
+      <c r="DH3" s="84"/>
+      <c r="DI3" s="84"/>
+      <c r="DJ3" s="84"/>
+      <c r="DK3" s="84"/>
+      <c r="DL3" s="84"/>
+      <c r="DM3" s="84"/>
+      <c r="DN3" s="84"/>
+      <c r="DO3" s="84"/>
+      <c r="DP3" s="84"/>
+      <c r="DQ3" s="84"/>
+      <c r="DR3" s="84"/>
+      <c r="DS3" s="84"/>
+      <c r="DT3" s="84"/>
+      <c r="DU3" s="84"/>
+      <c r="DV3" s="84"/>
+      <c r="DW3" s="94"/>
+      <c r="DX3" s="94"/>
+      <c r="DY3" s="94"/>
+      <c r="DZ3" s="94"/>
+      <c r="EA3" s="94"/>
+      <c r="EB3" s="94"/>
+      <c r="EC3" s="90"/>
+      <c r="ED3" s="90"/>
+      <c r="EE3" s="90"/>
+      <c r="EF3" s="90"/>
+      <c r="EG3" s="90"/>
+      <c r="EH3" s="90"/>
+      <c r="EI3" s="90"/>
+      <c r="EJ3" s="90"/>
+      <c r="EK3" s="90"/>
+      <c r="EL3" s="90"/>
     </row>
     <row r="4" spans="2:142" ht="12.75" thickTop="1">
       <c r="B4" s="12"/>
@@ -13700,7 +13559,7 @@
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
@@ -13814,7 +13673,7 @@
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
@@ -14145,7 +14004,7 @@
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="E17" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
@@ -14196,7 +14055,7 @@
       <c r="D18" s="26"/>
       <c r="E18" s="23"/>
       <c r="F18" s="23" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="G18" s="23"/>
       <c r="K18" s="26"/>
@@ -14247,7 +14106,7 @@
       <c r="D19" s="26"/>
       <c r="E19" s="23"/>
       <c r="F19" s="23" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -14300,7 +14159,7 @@
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
       <c r="F20" s="23" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
@@ -14353,7 +14212,7 @@
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="F21" s="23" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="G21" s="23"/>
       <c r="J21" s="26"/>
@@ -14456,7 +14315,7 @@
       <c r="B23" s="13"/>
       <c r="C23" s="26"/>
       <c r="F23" s="11" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
@@ -14543,8 +14402,8 @@
     <row r="24" spans="2:142" ht="18.75">
       <c r="B24" s="13"/>
       <c r="C24" s="26"/>
-      <c r="F24" s="93" t="s">
-        <v>174</v>
+      <c r="F24" s="40" t="s">
+        <v>163</v>
       </c>
       <c r="W24" s="26"/>
       <c r="X24" s="26"/>
@@ -14581,8 +14440,8 @@
     <row r="25" spans="2:142" ht="18.75">
       <c r="B25" s="13"/>
       <c r="C25" s="26"/>
-      <c r="F25" s="94" t="s">
-        <v>178</v>
+      <c r="F25" s="41" t="s">
+        <v>167</v>
       </c>
       <c r="W25" s="26"/>
       <c r="X25" s="26"/>
@@ -14615,66 +14474,66 @@
       <c r="AY25" s="13"/>
       <c r="AZ25" s="13"/>
       <c r="BA25" s="13"/>
-      <c r="CJ25" s="89"/>
-      <c r="CK25" s="89"/>
-      <c r="CL25" s="89"/>
-      <c r="CM25" s="89"/>
-      <c r="CN25" s="70"/>
-      <c r="CO25" s="70"/>
-      <c r="CP25" s="70"/>
-      <c r="CQ25" s="70"/>
-      <c r="CR25" s="89"/>
-      <c r="CS25" s="89"/>
-      <c r="CT25" s="89"/>
-      <c r="CU25" s="89"/>
-      <c r="CV25" s="71"/>
-      <c r="CW25" s="71"/>
-      <c r="CX25" s="71"/>
-      <c r="CY25" s="71"/>
-      <c r="CZ25" s="71"/>
-      <c r="DA25" s="71"/>
-      <c r="DB25" s="71"/>
-      <c r="DC25" s="71"/>
-      <c r="DD25" s="71"/>
-      <c r="DE25" s="71"/>
-      <c r="DF25" s="71"/>
-      <c r="DG25" s="71"/>
-      <c r="DH25" s="71"/>
-      <c r="DI25" s="71"/>
-      <c r="DJ25" s="71"/>
-      <c r="DK25" s="71"/>
-      <c r="DL25" s="71"/>
-      <c r="DM25" s="71"/>
-      <c r="DN25" s="71"/>
-      <c r="DO25" s="71"/>
-      <c r="DP25" s="71"/>
-      <c r="DQ25" s="71"/>
-      <c r="DR25" s="71"/>
-      <c r="DS25" s="71"/>
-      <c r="DT25" s="71"/>
-      <c r="DU25" s="71"/>
-      <c r="DV25" s="71"/>
-      <c r="DW25" s="71"/>
-      <c r="DX25" s="71"/>
-      <c r="DY25" s="71"/>
-      <c r="DZ25" s="71"/>
-      <c r="EA25" s="71"/>
-      <c r="EB25" s="71"/>
-      <c r="EC25" s="71"/>
-      <c r="ED25" s="71"/>
-      <c r="EE25" s="71"/>
-      <c r="EF25" s="71"/>
-      <c r="EG25" s="71"/>
-      <c r="EH25" s="71"/>
-      <c r="EI25" s="71"/>
-      <c r="EJ25" s="71"/>
-      <c r="EK25" s="71"/>
-      <c r="EL25" s="71"/>
+      <c r="CJ25" s="95"/>
+      <c r="CK25" s="95"/>
+      <c r="CL25" s="95"/>
+      <c r="CM25" s="95"/>
+      <c r="CN25" s="96"/>
+      <c r="CO25" s="96"/>
+      <c r="CP25" s="96"/>
+      <c r="CQ25" s="96"/>
+      <c r="CR25" s="95"/>
+      <c r="CS25" s="95"/>
+      <c r="CT25" s="95"/>
+      <c r="CU25" s="95"/>
+      <c r="CV25" s="97"/>
+      <c r="CW25" s="97"/>
+      <c r="CX25" s="97"/>
+      <c r="CY25" s="97"/>
+      <c r="CZ25" s="97"/>
+      <c r="DA25" s="97"/>
+      <c r="DB25" s="97"/>
+      <c r="DC25" s="97"/>
+      <c r="DD25" s="97"/>
+      <c r="DE25" s="97"/>
+      <c r="DF25" s="97"/>
+      <c r="DG25" s="97"/>
+      <c r="DH25" s="97"/>
+      <c r="DI25" s="97"/>
+      <c r="DJ25" s="97"/>
+      <c r="DK25" s="97"/>
+      <c r="DL25" s="97"/>
+      <c r="DM25" s="97"/>
+      <c r="DN25" s="97"/>
+      <c r="DO25" s="97"/>
+      <c r="DP25" s="97"/>
+      <c r="DQ25" s="97"/>
+      <c r="DR25" s="97"/>
+      <c r="DS25" s="97"/>
+      <c r="DT25" s="97"/>
+      <c r="DU25" s="97"/>
+      <c r="DV25" s="97"/>
+      <c r="DW25" s="97"/>
+      <c r="DX25" s="97"/>
+      <c r="DY25" s="97"/>
+      <c r="DZ25" s="97"/>
+      <c r="EA25" s="97"/>
+      <c r="EB25" s="97"/>
+      <c r="EC25" s="97"/>
+      <c r="ED25" s="97"/>
+      <c r="EE25" s="97"/>
+      <c r="EF25" s="97"/>
+      <c r="EG25" s="97"/>
+      <c r="EH25" s="97"/>
+      <c r="EI25" s="97"/>
+      <c r="EJ25" s="97"/>
+      <c r="EK25" s="97"/>
+      <c r="EL25" s="97"/>
     </row>
     <row r="26" spans="2:142" ht="18.75">
       <c r="B26" s="13"/>
       <c r="C26" s="26"/>
-      <c r="F26" s="95"/>
+      <c r="F26" s="42"/>
       <c r="K26" s="26"/>
       <c r="W26" s="26"/>
       <c r="X26" s="26"/>
@@ -14712,8 +14571,8 @@
       <c r="B27" s="13"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
-      <c r="F27" s="96" t="s">
-        <v>179</v>
+      <c r="F27" s="43" t="s">
+        <v>168</v>
       </c>
       <c r="K27" s="23"/>
       <c r="L27" s="26"/>
@@ -14753,8 +14612,8 @@
       <c r="B28" s="13"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
-      <c r="F28" s="96" t="s">
-        <v>180</v>
+      <c r="F28" s="43" t="s">
+        <v>169</v>
       </c>
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
@@ -14794,8 +14653,8 @@
       <c r="B29" s="13"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
-      <c r="F29" s="96" t="s">
-        <v>181</v>
+      <c r="F29" s="43" t="s">
+        <v>170</v>
       </c>
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
@@ -14838,8 +14697,8 @@
       <c r="B30" s="13"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
-      <c r="F30" s="96" t="s">
-        <v>182</v>
+      <c r="F30" s="43" t="s">
+        <v>171</v>
       </c>
       <c r="U30" s="26"/>
       <c r="V30" s="26"/>
@@ -14923,7 +14782,7 @@
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="F32" s="23" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="G32" s="23"/>
       <c r="K32" s="28"/>
@@ -14968,8 +14827,8 @@
     <row r="33" spans="2:142" ht="18.75">
       <c r="B33" s="13"/>
       <c r="C33" s="26"/>
-      <c r="F33" s="97" t="s">
-        <v>177</v>
+      <c r="F33" s="44" t="s">
+        <v>166</v>
       </c>
       <c r="L33" s="28"/>
       <c r="M33" s="26"/>
@@ -15225,61 +15084,61 @@
       <c r="AY37" s="13"/>
       <c r="AZ37" s="13"/>
       <c r="BA37" s="13"/>
-      <c r="CJ37" s="89"/>
-      <c r="CK37" s="89"/>
-      <c r="CL37" s="89"/>
-      <c r="CM37" s="89"/>
-      <c r="CN37" s="70"/>
-      <c r="CO37" s="70"/>
-      <c r="CP37" s="70"/>
-      <c r="CQ37" s="70"/>
-      <c r="CR37" s="89"/>
-      <c r="CS37" s="89"/>
-      <c r="CT37" s="89"/>
-      <c r="CU37" s="89"/>
-      <c r="CV37" s="71"/>
-      <c r="CW37" s="71"/>
-      <c r="CX37" s="71"/>
-      <c r="CY37" s="71"/>
-      <c r="CZ37" s="71"/>
-      <c r="DA37" s="71"/>
-      <c r="DB37" s="71"/>
-      <c r="DC37" s="71"/>
-      <c r="DD37" s="71"/>
-      <c r="DE37" s="71"/>
-      <c r="DF37" s="71"/>
-      <c r="DG37" s="71"/>
-      <c r="DH37" s="71"/>
-      <c r="DI37" s="71"/>
-      <c r="DJ37" s="71"/>
-      <c r="DK37" s="71"/>
-      <c r="DL37" s="71"/>
-      <c r="DM37" s="71"/>
-      <c r="DN37" s="71"/>
-      <c r="DO37" s="71"/>
-      <c r="DP37" s="71"/>
-      <c r="DQ37" s="71"/>
-      <c r="DR37" s="71"/>
-      <c r="DS37" s="71"/>
-      <c r="DT37" s="71"/>
-      <c r="DU37" s="71"/>
-      <c r="DV37" s="71"/>
-      <c r="DW37" s="71"/>
-      <c r="DX37" s="71"/>
-      <c r="DY37" s="71"/>
-      <c r="DZ37" s="71"/>
-      <c r="EA37" s="71"/>
-      <c r="EB37" s="71"/>
-      <c r="EC37" s="71"/>
-      <c r="ED37" s="71"/>
-      <c r="EE37" s="71"/>
-      <c r="EF37" s="71"/>
-      <c r="EG37" s="71"/>
-      <c r="EH37" s="71"/>
-      <c r="EI37" s="71"/>
-      <c r="EJ37" s="71"/>
-      <c r="EK37" s="71"/>
-      <c r="EL37" s="71"/>
+      <c r="CJ37" s="95"/>
+      <c r="CK37" s="95"/>
+      <c r="CL37" s="95"/>
+      <c r="CM37" s="95"/>
+      <c r="CN37" s="96"/>
+      <c r="CO37" s="96"/>
+      <c r="CP37" s="96"/>
+      <c r="CQ37" s="96"/>
+      <c r="CR37" s="95"/>
+      <c r="CS37" s="95"/>
+      <c r="CT37" s="95"/>
+      <c r="CU37" s="95"/>
+      <c r="CV37" s="97"/>
+      <c r="CW37" s="97"/>
+      <c r="CX37" s="97"/>
+      <c r="CY37" s="97"/>
+      <c r="CZ37" s="97"/>
+      <c r="DA37" s="97"/>
+      <c r="DB37" s="97"/>
+      <c r="DC37" s="97"/>
+      <c r="DD37" s="97"/>
+      <c r="DE37" s="97"/>
+      <c r="DF37" s="97"/>
+      <c r="DG37" s="97"/>
+      <c r="DH37" s="97"/>
+      <c r="DI37" s="97"/>
+      <c r="DJ37" s="97"/>
+      <c r="DK37" s="97"/>
+      <c r="DL37" s="97"/>
+      <c r="DM37" s="97"/>
+      <c r="DN37" s="97"/>
+      <c r="DO37" s="97"/>
+      <c r="DP37" s="97"/>
+      <c r="DQ37" s="97"/>
+      <c r="DR37" s="97"/>
+      <c r="DS37" s="97"/>
+      <c r="DT37" s="97"/>
+      <c r="DU37" s="97"/>
+      <c r="DV37" s="97"/>
+      <c r="DW37" s="97"/>
+      <c r="DX37" s="97"/>
+      <c r="DY37" s="97"/>
+      <c r="DZ37" s="97"/>
+      <c r="EA37" s="97"/>
+      <c r="EB37" s="97"/>
+      <c r="EC37" s="97"/>
+      <c r="ED37" s="97"/>
+      <c r="EE37" s="97"/>
+      <c r="EF37" s="97"/>
+      <c r="EG37" s="97"/>
+      <c r="EH37" s="97"/>
+      <c r="EI37" s="97"/>
+      <c r="EJ37" s="97"/>
+      <c r="EK37" s="97"/>
+      <c r="EL37" s="97"/>
     </row>
     <row r="38" spans="2:142" ht="18.75">
       <c r="B38" s="13"/>
@@ -15509,7 +15368,7 @@
       <c r="D42" s="23"/>
       <c r="E42" s="23"/>
       <c r="F42" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
@@ -15566,7 +15425,7 @@
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
@@ -15622,7 +15481,7 @@
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
       <c r="G44" s="23" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
@@ -15678,7 +15537,7 @@
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
       <c r="G45" s="23" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="H45" s="23"/>
       <c r="I45" s="23"/>
@@ -16285,7 +16144,7 @@
       <c r="C56" s="26"/>
       <c r="D56" s="28"/>
       <c r="E56" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F56" s="23"/>
       <c r="G56" s="23"/>
@@ -16335,61 +16194,61 @@
       <c r="AY56" s="13"/>
       <c r="AZ56" s="13"/>
       <c r="BA56" s="13"/>
-      <c r="CJ56" s="89"/>
-      <c r="CK56" s="89"/>
-      <c r="CL56" s="89"/>
-      <c r="CM56" s="89"/>
-      <c r="CN56" s="70"/>
-      <c r="CO56" s="70"/>
-      <c r="CP56" s="70"/>
-      <c r="CQ56" s="70"/>
-      <c r="CR56" s="89"/>
-      <c r="CS56" s="89"/>
-      <c r="CT56" s="89"/>
-      <c r="CU56" s="89"/>
-      <c r="CV56" s="71"/>
-      <c r="CW56" s="71"/>
-      <c r="CX56" s="71"/>
-      <c r="CY56" s="71"/>
-      <c r="CZ56" s="71"/>
-      <c r="DA56" s="71"/>
-      <c r="DB56" s="71"/>
-      <c r="DC56" s="71"/>
-      <c r="DD56" s="71"/>
-      <c r="DE56" s="71"/>
-      <c r="DF56" s="71"/>
-      <c r="DG56" s="71"/>
-      <c r="DH56" s="71"/>
-      <c r="DI56" s="71"/>
-      <c r="DJ56" s="71"/>
-      <c r="DK56" s="71"/>
-      <c r="DL56" s="71"/>
-      <c r="DM56" s="71"/>
-      <c r="DN56" s="71"/>
-      <c r="DO56" s="71"/>
-      <c r="DP56" s="71"/>
-      <c r="DQ56" s="71"/>
-      <c r="DR56" s="71"/>
-      <c r="DS56" s="71"/>
-      <c r="DT56" s="71"/>
-      <c r="DU56" s="71"/>
-      <c r="DV56" s="71"/>
-      <c r="DW56" s="71"/>
-      <c r="DX56" s="71"/>
-      <c r="DY56" s="71"/>
-      <c r="DZ56" s="71"/>
-      <c r="EA56" s="71"/>
-      <c r="EB56" s="71"/>
-      <c r="EC56" s="71"/>
-      <c r="ED56" s="71"/>
-      <c r="EE56" s="71"/>
-      <c r="EF56" s="71"/>
-      <c r="EG56" s="71"/>
-      <c r="EH56" s="71"/>
-      <c r="EI56" s="71"/>
-      <c r="EJ56" s="71"/>
-      <c r="EK56" s="71"/>
-      <c r="EL56" s="71"/>
+      <c r="CJ56" s="95"/>
+      <c r="CK56" s="95"/>
+      <c r="CL56" s="95"/>
+      <c r="CM56" s="95"/>
+      <c r="CN56" s="96"/>
+      <c r="CO56" s="96"/>
+      <c r="CP56" s="96"/>
+      <c r="CQ56" s="96"/>
+      <c r="CR56" s="95"/>
+      <c r="CS56" s="95"/>
+      <c r="CT56" s="95"/>
+      <c r="CU56" s="95"/>
+      <c r="CV56" s="97"/>
+      <c r="CW56" s="97"/>
+      <c r="CX56" s="97"/>
+      <c r="CY56" s="97"/>
+      <c r="CZ56" s="97"/>
+      <c r="DA56" s="97"/>
+      <c r="DB56" s="97"/>
+      <c r="DC56" s="97"/>
+      <c r="DD56" s="97"/>
+      <c r="DE56" s="97"/>
+      <c r="DF56" s="97"/>
+      <c r="DG56" s="97"/>
+      <c r="DH56" s="97"/>
+      <c r="DI56" s="97"/>
+      <c r="DJ56" s="97"/>
+      <c r="DK56" s="97"/>
+      <c r="DL56" s="97"/>
+      <c r="DM56" s="97"/>
+      <c r="DN56" s="97"/>
+      <c r="DO56" s="97"/>
+      <c r="DP56" s="97"/>
+      <c r="DQ56" s="97"/>
+      <c r="DR56" s="97"/>
+      <c r="DS56" s="97"/>
+      <c r="DT56" s="97"/>
+      <c r="DU56" s="97"/>
+      <c r="DV56" s="97"/>
+      <c r="DW56" s="97"/>
+      <c r="DX56" s="97"/>
+      <c r="DY56" s="97"/>
+      <c r="DZ56" s="97"/>
+      <c r="EA56" s="97"/>
+      <c r="EB56" s="97"/>
+      <c r="EC56" s="97"/>
+      <c r="ED56" s="97"/>
+      <c r="EE56" s="97"/>
+      <c r="EF56" s="97"/>
+      <c r="EG56" s="97"/>
+      <c r="EH56" s="97"/>
+      <c r="EI56" s="97"/>
+      <c r="EJ56" s="97"/>
+      <c r="EK56" s="97"/>
+      <c r="EL56" s="97"/>
     </row>
     <row r="57" spans="2:142" ht="18.75">
       <c r="B57" s="13"/>
@@ -16397,7 +16256,7 @@
       <c r="D57" s="28"/>
       <c r="E57" s="23"/>
       <c r="F57" s="23" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
@@ -16453,7 +16312,7 @@
       <c r="D58" s="28"/>
       <c r="E58" s="23"/>
       <c r="F58" s="23" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G58" s="23"/>
       <c r="H58" s="23"/>
@@ -16509,7 +16368,7 @@
       <c r="D59" s="28"/>
       <c r="E59" s="23"/>
       <c r="F59" s="23" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="G59" s="23"/>
       <c r="H59" s="23"/>
@@ -16565,7 +16424,7 @@
       <c r="D60" s="23"/>
       <c r="E60" s="23"/>
       <c r="F60" s="23" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="G60" s="23"/>
       <c r="H60" s="23"/>
@@ -17177,7 +17036,7 @@
       <c r="C71" s="13"/>
       <c r="D71" s="28"/>
       <c r="E71" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="23"/>
@@ -17234,7 +17093,7 @@
       <c r="D72" s="28"/>
       <c r="E72" s="23"/>
       <c r="F72" s="23" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="G72" s="23"/>
       <c r="H72" s="23"/>
@@ -17283,61 +17142,61 @@
       <c r="AY72" s="13"/>
       <c r="AZ72" s="13"/>
       <c r="BA72" s="13"/>
-      <c r="CJ72" s="89"/>
-      <c r="CK72" s="89"/>
-      <c r="CL72" s="89"/>
-      <c r="CM72" s="89"/>
-      <c r="CN72" s="70"/>
-      <c r="CO72" s="70"/>
-      <c r="CP72" s="70"/>
-      <c r="CQ72" s="70"/>
-      <c r="CR72" s="89"/>
-      <c r="CS72" s="89"/>
-      <c r="CT72" s="89"/>
-      <c r="CU72" s="89"/>
-      <c r="CV72" s="71"/>
-      <c r="CW72" s="71"/>
-      <c r="CX72" s="71"/>
-      <c r="CY72" s="71"/>
-      <c r="CZ72" s="71"/>
-      <c r="DA72" s="71"/>
-      <c r="DB72" s="71"/>
-      <c r="DC72" s="71"/>
-      <c r="DD72" s="71"/>
-      <c r="DE72" s="71"/>
-      <c r="DF72" s="71"/>
-      <c r="DG72" s="71"/>
-      <c r="DH72" s="71"/>
-      <c r="DI72" s="71"/>
-      <c r="DJ72" s="71"/>
-      <c r="DK72" s="71"/>
-      <c r="DL72" s="71"/>
-      <c r="DM72" s="71"/>
-      <c r="DN72" s="71"/>
-      <c r="DO72" s="71"/>
-      <c r="DP72" s="71"/>
-      <c r="DQ72" s="71"/>
-      <c r="DR72" s="71"/>
-      <c r="DS72" s="71"/>
-      <c r="DT72" s="71"/>
-      <c r="DU72" s="71"/>
-      <c r="DV72" s="71"/>
-      <c r="DW72" s="71"/>
-      <c r="DX72" s="71"/>
-      <c r="DY72" s="71"/>
-      <c r="DZ72" s="71"/>
-      <c r="EA72" s="71"/>
-      <c r="EB72" s="71"/>
-      <c r="EC72" s="71"/>
-      <c r="ED72" s="71"/>
-      <c r="EE72" s="71"/>
-      <c r="EF72" s="71"/>
-      <c r="EG72" s="71"/>
-      <c r="EH72" s="71"/>
-      <c r="EI72" s="71"/>
-      <c r="EJ72" s="71"/>
-      <c r="EK72" s="71"/>
-      <c r="EL72" s="71"/>
+      <c r="CJ72" s="95"/>
+      <c r="CK72" s="95"/>
+      <c r="CL72" s="95"/>
+      <c r="CM72" s="95"/>
+      <c r="CN72" s="96"/>
+      <c r="CO72" s="96"/>
+      <c r="CP72" s="96"/>
+      <c r="CQ72" s="96"/>
+      <c r="CR72" s="95"/>
+      <c r="CS72" s="95"/>
+      <c r="CT72" s="95"/>
+      <c r="CU72" s="95"/>
+      <c r="CV72" s="97"/>
+      <c r="CW72" s="97"/>
+      <c r="CX72" s="97"/>
+      <c r="CY72" s="97"/>
+      <c r="CZ72" s="97"/>
+      <c r="DA72" s="97"/>
+      <c r="DB72" s="97"/>
+      <c r="DC72" s="97"/>
+      <c r="DD72" s="97"/>
+      <c r="DE72" s="97"/>
+      <c r="DF72" s="97"/>
+      <c r="DG72" s="97"/>
+      <c r="DH72" s="97"/>
+      <c r="DI72" s="97"/>
+      <c r="DJ72" s="97"/>
+      <c r="DK72" s="97"/>
+      <c r="DL72" s="97"/>
+      <c r="DM72" s="97"/>
+      <c r="DN72" s="97"/>
+      <c r="DO72" s="97"/>
+      <c r="DP72" s="97"/>
+      <c r="DQ72" s="97"/>
+      <c r="DR72" s="97"/>
+      <c r="DS72" s="97"/>
+      <c r="DT72" s="97"/>
+      <c r="DU72" s="97"/>
+      <c r="DV72" s="97"/>
+      <c r="DW72" s="97"/>
+      <c r="DX72" s="97"/>
+      <c r="DY72" s="97"/>
+      <c r="DZ72" s="97"/>
+      <c r="EA72" s="97"/>
+      <c r="EB72" s="97"/>
+      <c r="EC72" s="97"/>
+      <c r="ED72" s="97"/>
+      <c r="EE72" s="97"/>
+      <c r="EF72" s="97"/>
+      <c r="EG72" s="97"/>
+      <c r="EH72" s="97"/>
+      <c r="EI72" s="97"/>
+      <c r="EJ72" s="97"/>
+      <c r="EK72" s="97"/>
+      <c r="EL72" s="97"/>
     </row>
     <row r="73" spans="2:142" ht="18.75">
       <c r="B73" s="13"/>
@@ -17345,7 +17204,7 @@
       <c r="D73" s="28"/>
       <c r="E73" s="23"/>
       <c r="F73" s="23" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G73" s="23"/>
       <c r="H73" s="23"/>
@@ -17401,7 +17260,7 @@
       <c r="D74" s="28"/>
       <c r="E74" s="23"/>
       <c r="F74" s="23" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="G74" s="23"/>
       <c r="H74" s="23"/>
@@ -17457,7 +17316,7 @@
       <c r="D75" s="28"/>
       <c r="E75" s="23"/>
       <c r="F75" s="23" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="G75" s="23"/>
       <c r="H75" s="23"/>
@@ -17513,7 +17372,7 @@
       <c r="D76" s="23"/>
       <c r="E76" s="23"/>
       <c r="F76" s="23" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G76" s="23"/>
       <c r="H76" s="23"/>
@@ -18757,7 +18616,7 @@
       <c r="C98" s="13"/>
       <c r="D98" s="28"/>
       <c r="E98" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F98" s="23"/>
       <c r="G98" s="23"/>
@@ -18814,7 +18673,7 @@
       <c r="D99" s="28"/>
       <c r="E99" s="23"/>
       <c r="F99" s="23" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="G99" s="23"/>
       <c r="H99" s="23"/>
@@ -18870,7 +18729,7 @@
       <c r="D100" s="28"/>
       <c r="E100" s="23"/>
       <c r="F100" s="23" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="G100" s="23"/>
       <c r="H100" s="23"/>
@@ -18926,7 +18785,7 @@
       <c r="D101" s="28"/>
       <c r="E101" s="23"/>
       <c r="F101" s="23" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="G101" s="23"/>
       <c r="H101" s="23"/>
@@ -18982,7 +18841,7 @@
       <c r="D102" s="28"/>
       <c r="E102" s="23"/>
       <c r="F102" s="23" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="G102" s="23"/>
       <c r="H102" s="23"/>
@@ -19038,7 +18897,7 @@
       <c r="D103" s="28"/>
       <c r="E103" s="28"/>
       <c r="F103" s="23" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="G103" s="23"/>
       <c r="H103" s="23"/>
@@ -19094,7 +18953,7 @@
       <c r="D104" s="28"/>
       <c r="E104" s="28"/>
       <c r="F104" s="23" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G104" s="23"/>
       <c r="H104" s="23"/>
@@ -19150,7 +19009,7 @@
       <c r="D105" s="28"/>
       <c r="E105" s="28"/>
       <c r="F105" s="23" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G105" s="23"/>
       <c r="H105" s="23"/>
@@ -19207,7 +19066,7 @@
       <c r="E106" s="28"/>
       <c r="F106" s="23"/>
       <c r="G106" s="23" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="H106" s="28"/>
       <c r="I106" s="28"/>
@@ -19263,7 +19122,7 @@
       <c r="E107" s="28"/>
       <c r="F107" s="23"/>
       <c r="G107" s="23" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="H107" s="28"/>
       <c r="I107" s="28"/>
@@ -19318,7 +19177,7 @@
       <c r="D108" s="28"/>
       <c r="E108" s="28"/>
       <c r="F108" s="23" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="G108" s="23"/>
       <c r="H108" s="28"/>
@@ -19375,7 +19234,7 @@
       <c r="E109" s="28"/>
       <c r="F109" s="23"/>
       <c r="G109" s="28" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="H109" s="28"/>
       <c r="I109" s="28"/>
@@ -19431,7 +19290,7 @@
       <c r="E110" s="28"/>
       <c r="F110" s="23"/>
       <c r="G110" s="28" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="H110" s="28"/>
       <c r="I110" s="28"/>
@@ -19974,16 +19833,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="EC2:EL2"/>
-    <mergeCell ref="AL3:AQ3"/>
-    <mergeCell ref="AR3:BA3"/>
-    <mergeCell ref="DW3:EB3"/>
-    <mergeCell ref="EC3:EL3"/>
-    <mergeCell ref="B2:AK3"/>
-    <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="AR2:BA2"/>
-    <mergeCell ref="CJ2:DV3"/>
-    <mergeCell ref="DW2:EB2"/>
+    <mergeCell ref="CJ56:CM56"/>
+    <mergeCell ref="CN56:CQ56"/>
+    <mergeCell ref="CR56:CU56"/>
+    <mergeCell ref="CV56:EL56"/>
+    <mergeCell ref="CJ72:CM72"/>
+    <mergeCell ref="CN72:CQ72"/>
+    <mergeCell ref="CR72:CU72"/>
+    <mergeCell ref="CV72:EL72"/>
     <mergeCell ref="CJ25:CM25"/>
     <mergeCell ref="CN25:CQ25"/>
     <mergeCell ref="CR25:CU25"/>
@@ -19992,14 +19849,16 @@
     <mergeCell ref="CN37:CQ37"/>
     <mergeCell ref="CR37:CU37"/>
     <mergeCell ref="CV37:EL37"/>
-    <mergeCell ref="CJ56:CM56"/>
-    <mergeCell ref="CN56:CQ56"/>
-    <mergeCell ref="CR56:CU56"/>
-    <mergeCell ref="CV56:EL56"/>
-    <mergeCell ref="CJ72:CM72"/>
-    <mergeCell ref="CN72:CQ72"/>
-    <mergeCell ref="CR72:CU72"/>
-    <mergeCell ref="CV72:EL72"/>
+    <mergeCell ref="B2:AK3"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="AR2:BA2"/>
+    <mergeCell ref="CJ2:DV3"/>
+    <mergeCell ref="DW2:EB2"/>
+    <mergeCell ref="EC2:EL2"/>
+    <mergeCell ref="AL3:AQ3"/>
+    <mergeCell ref="AR3:BA3"/>
+    <mergeCell ref="DW3:EB3"/>
+    <mergeCell ref="EC3:EL3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.71" right="0.39" top="0.59" bottom="0.59" header="0.39" footer="0.39"/>
@@ -20013,11 +19872,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F558EA24-87D9-4463-9231-C3752CABC933}">
   <dimension ref="B1:EL121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B65" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B46" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
@@ -20032,232 +19891,232 @@
   <sheetData>
     <row r="1" spans="2:142" ht="12.75" thickBot="1"/>
     <row r="2" spans="2:142" ht="12.75" thickTop="1">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="79"/>
-      <c r="AL2" s="83" t="s">
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="AM2" s="83"/>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="83"/>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="83"/>
-      <c r="AR2" s="84">
+      <c r="AM2" s="81"/>
+      <c r="AN2" s="81"/>
+      <c r="AO2" s="81"/>
+      <c r="AP2" s="81"/>
+      <c r="AQ2" s="81"/>
+      <c r="AR2" s="82">
         <v>43998</v>
       </c>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="84"/>
-      <c r="AV2" s="84"/>
-      <c r="AW2" s="84"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="84"/>
-      <c r="AZ2" s="84"/>
-      <c r="BA2" s="85"/>
-      <c r="CJ2" s="86"/>
-      <c r="CK2" s="86"/>
-      <c r="CL2" s="86"/>
-      <c r="CM2" s="86"/>
-      <c r="CN2" s="86"/>
-      <c r="CO2" s="86"/>
-      <c r="CP2" s="86"/>
-      <c r="CQ2" s="86"/>
-      <c r="CR2" s="86"/>
-      <c r="CS2" s="86"/>
-      <c r="CT2" s="86"/>
-      <c r="CU2" s="86"/>
-      <c r="CV2" s="86"/>
-      <c r="CW2" s="86"/>
-      <c r="CX2" s="86"/>
-      <c r="CY2" s="86"/>
-      <c r="CZ2" s="86"/>
-      <c r="DA2" s="86"/>
-      <c r="DB2" s="86"/>
-      <c r="DC2" s="86"/>
-      <c r="DD2" s="86"/>
-      <c r="DE2" s="86"/>
-      <c r="DF2" s="86"/>
-      <c r="DG2" s="86"/>
-      <c r="DH2" s="86"/>
-      <c r="DI2" s="86"/>
-      <c r="DJ2" s="86"/>
-      <c r="DK2" s="86"/>
-      <c r="DL2" s="86"/>
-      <c r="DM2" s="86"/>
-      <c r="DN2" s="86"/>
-      <c r="DO2" s="86"/>
-      <c r="DP2" s="86"/>
-      <c r="DQ2" s="86"/>
-      <c r="DR2" s="86"/>
-      <c r="DS2" s="86"/>
-      <c r="DT2" s="86"/>
-      <c r="DU2" s="86"/>
-      <c r="DV2" s="86"/>
-      <c r="DW2" s="88"/>
-      <c r="DX2" s="88"/>
-      <c r="DY2" s="88"/>
-      <c r="DZ2" s="88"/>
-      <c r="EA2" s="88"/>
-      <c r="EB2" s="88"/>
-      <c r="EC2" s="87"/>
-      <c r="ED2" s="87"/>
-      <c r="EE2" s="87"/>
-      <c r="EF2" s="87"/>
-      <c r="EG2" s="87"/>
-      <c r="EH2" s="87"/>
-      <c r="EI2" s="87"/>
-      <c r="EJ2" s="87"/>
-      <c r="EK2" s="87"/>
-      <c r="EL2" s="87"/>
+      <c r="AS2" s="82"/>
+      <c r="AT2" s="82"/>
+      <c r="AU2" s="82"/>
+      <c r="AV2" s="82"/>
+      <c r="AW2" s="82"/>
+      <c r="AX2" s="82"/>
+      <c r="AY2" s="82"/>
+      <c r="AZ2" s="82"/>
+      <c r="BA2" s="83"/>
+      <c r="CJ2" s="84"/>
+      <c r="CK2" s="84"/>
+      <c r="CL2" s="84"/>
+      <c r="CM2" s="84"/>
+      <c r="CN2" s="84"/>
+      <c r="CO2" s="84"/>
+      <c r="CP2" s="84"/>
+      <c r="CQ2" s="84"/>
+      <c r="CR2" s="84"/>
+      <c r="CS2" s="84"/>
+      <c r="CT2" s="84"/>
+      <c r="CU2" s="84"/>
+      <c r="CV2" s="84"/>
+      <c r="CW2" s="84"/>
+      <c r="CX2" s="84"/>
+      <c r="CY2" s="84"/>
+      <c r="CZ2" s="84"/>
+      <c r="DA2" s="84"/>
+      <c r="DB2" s="84"/>
+      <c r="DC2" s="84"/>
+      <c r="DD2" s="84"/>
+      <c r="DE2" s="84"/>
+      <c r="DF2" s="84"/>
+      <c r="DG2" s="84"/>
+      <c r="DH2" s="84"/>
+      <c r="DI2" s="84"/>
+      <c r="DJ2" s="84"/>
+      <c r="DK2" s="84"/>
+      <c r="DL2" s="84"/>
+      <c r="DM2" s="84"/>
+      <c r="DN2" s="84"/>
+      <c r="DO2" s="84"/>
+      <c r="DP2" s="84"/>
+      <c r="DQ2" s="84"/>
+      <c r="DR2" s="84"/>
+      <c r="DS2" s="84"/>
+      <c r="DT2" s="84"/>
+      <c r="DU2" s="84"/>
+      <c r="DV2" s="84"/>
+      <c r="DW2" s="94"/>
+      <c r="DX2" s="94"/>
+      <c r="DY2" s="94"/>
+      <c r="DZ2" s="94"/>
+      <c r="EA2" s="94"/>
+      <c r="EB2" s="94"/>
+      <c r="EC2" s="86"/>
+      <c r="ED2" s="86"/>
+      <c r="EE2" s="86"/>
+      <c r="EF2" s="86"/>
+      <c r="EG2" s="86"/>
+      <c r="EH2" s="86"/>
+      <c r="EI2" s="86"/>
+      <c r="EJ2" s="86"/>
+      <c r="EK2" s="86"/>
+      <c r="EL2" s="86"/>
     </row>
     <row r="3" spans="2:142" ht="12.75" thickBot="1">
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="81"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="81"/>
-      <c r="AH3" s="81"/>
-      <c r="AI3" s="81"/>
-      <c r="AJ3" s="81"/>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="72" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="79"/>
+      <c r="AH3" s="79"/>
+      <c r="AI3" s="79"/>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72"/>
-      <c r="AR3" s="73" t="s">
+      <c r="AM3" s="87"/>
+      <c r="AN3" s="87"/>
+      <c r="AO3" s="87"/>
+      <c r="AP3" s="87"/>
+      <c r="AQ3" s="87"/>
+      <c r="AR3" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="73"/>
-      <c r="AU3" s="73"/>
-      <c r="AV3" s="73"/>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="74"/>
-      <c r="CJ3" s="86"/>
-      <c r="CK3" s="86"/>
-      <c r="CL3" s="86"/>
-      <c r="CM3" s="86"/>
-      <c r="CN3" s="86"/>
-      <c r="CO3" s="86"/>
-      <c r="CP3" s="86"/>
-      <c r="CQ3" s="86"/>
-      <c r="CR3" s="86"/>
-      <c r="CS3" s="86"/>
-      <c r="CT3" s="86"/>
-      <c r="CU3" s="86"/>
-      <c r="CV3" s="86"/>
-      <c r="CW3" s="86"/>
-      <c r="CX3" s="86"/>
-      <c r="CY3" s="86"/>
-      <c r="CZ3" s="86"/>
-      <c r="DA3" s="86"/>
-      <c r="DB3" s="86"/>
-      <c r="DC3" s="86"/>
-      <c r="DD3" s="86"/>
-      <c r="DE3" s="86"/>
-      <c r="DF3" s="86"/>
-      <c r="DG3" s="86"/>
-      <c r="DH3" s="86"/>
-      <c r="DI3" s="86"/>
-      <c r="DJ3" s="86"/>
-      <c r="DK3" s="86"/>
-      <c r="DL3" s="86"/>
-      <c r="DM3" s="86"/>
-      <c r="DN3" s="86"/>
-      <c r="DO3" s="86"/>
-      <c r="DP3" s="86"/>
-      <c r="DQ3" s="86"/>
-      <c r="DR3" s="86"/>
-      <c r="DS3" s="86"/>
-      <c r="DT3" s="86"/>
-      <c r="DU3" s="86"/>
-      <c r="DV3" s="86"/>
-      <c r="DW3" s="88"/>
-      <c r="DX3" s="88"/>
-      <c r="DY3" s="88"/>
-      <c r="DZ3" s="88"/>
-      <c r="EA3" s="88"/>
-      <c r="EB3" s="88"/>
-      <c r="EC3" s="76"/>
-      <c r="ED3" s="76"/>
-      <c r="EE3" s="76"/>
-      <c r="EF3" s="76"/>
-      <c r="EG3" s="76"/>
-      <c r="EH3" s="76"/>
-      <c r="EI3" s="76"/>
-      <c r="EJ3" s="76"/>
-      <c r="EK3" s="76"/>
-      <c r="EL3" s="76"/>
+      <c r="AS3" s="88"/>
+      <c r="AT3" s="88"/>
+      <c r="AU3" s="88"/>
+      <c r="AV3" s="88"/>
+      <c r="AW3" s="88"/>
+      <c r="AX3" s="88"/>
+      <c r="AY3" s="88"/>
+      <c r="AZ3" s="88"/>
+      <c r="BA3" s="89"/>
+      <c r="CJ3" s="84"/>
+      <c r="CK3" s="84"/>
+      <c r="CL3" s="84"/>
+      <c r="CM3" s="84"/>
+      <c r="CN3" s="84"/>
+      <c r="CO3" s="84"/>
+      <c r="CP3" s="84"/>
+      <c r="CQ3" s="84"/>
+      <c r="CR3" s="84"/>
+      <c r="CS3" s="84"/>
+      <c r="CT3" s="84"/>
+      <c r="CU3" s="84"/>
+      <c r="CV3" s="84"/>
+      <c r="CW3" s="84"/>
+      <c r="CX3" s="84"/>
+      <c r="CY3" s="84"/>
+      <c r="CZ3" s="84"/>
+      <c r="DA3" s="84"/>
+      <c r="DB3" s="84"/>
+      <c r="DC3" s="84"/>
+      <c r="DD3" s="84"/>
+      <c r="DE3" s="84"/>
+      <c r="DF3" s="84"/>
+      <c r="DG3" s="84"/>
+      <c r="DH3" s="84"/>
+      <c r="DI3" s="84"/>
+      <c r="DJ3" s="84"/>
+      <c r="DK3" s="84"/>
+      <c r="DL3" s="84"/>
+      <c r="DM3" s="84"/>
+      <c r="DN3" s="84"/>
+      <c r="DO3" s="84"/>
+      <c r="DP3" s="84"/>
+      <c r="DQ3" s="84"/>
+      <c r="DR3" s="84"/>
+      <c r="DS3" s="84"/>
+      <c r="DT3" s="84"/>
+      <c r="DU3" s="84"/>
+      <c r="DV3" s="84"/>
+      <c r="DW3" s="94"/>
+      <c r="DX3" s="94"/>
+      <c r="DY3" s="94"/>
+      <c r="DZ3" s="94"/>
+      <c r="EA3" s="94"/>
+      <c r="EB3" s="94"/>
+      <c r="EC3" s="90"/>
+      <c r="ED3" s="90"/>
+      <c r="EE3" s="90"/>
+      <c r="EF3" s="90"/>
+      <c r="EG3" s="90"/>
+      <c r="EH3" s="90"/>
+      <c r="EI3" s="90"/>
+      <c r="EJ3" s="90"/>
+      <c r="EK3" s="90"/>
+      <c r="EL3" s="90"/>
     </row>
     <row r="4" spans="2:142" ht="12.75" thickTop="1">
       <c r="B4" s="12"/>
@@ -20492,7 +20351,7 @@
       <c r="C9" s="26"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
@@ -20606,7 +20465,7 @@
       <c r="C11" s="26"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
@@ -20990,7 +20849,7 @@
       <c r="B18" s="13"/>
       <c r="C18" s="26"/>
       <c r="E18" s="23" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
@@ -21101,7 +20960,7 @@
       <c r="C20" s="26"/>
       <c r="D20" s="28"/>
       <c r="E20" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
@@ -21157,7 +21016,7 @@
       <c r="D21" s="28"/>
       <c r="E21" s="23"/>
       <c r="F21" s="23" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="G21" s="23"/>
       <c r="J21" s="28"/>
@@ -21212,7 +21071,7 @@
       <c r="D22" s="28"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
@@ -21267,7 +21126,7 @@
       <c r="C23" s="26"/>
       <c r="D23" s="28"/>
       <c r="F23" s="23" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
@@ -21361,7 +21220,7 @@
       <c r="C24" s="26"/>
       <c r="D24" s="28"/>
       <c r="F24" s="23" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="G24" s="23"/>
       <c r="J24" s="28"/>
@@ -21456,61 +21315,61 @@
       <c r="AY25" s="13"/>
       <c r="AZ25" s="13"/>
       <c r="BA25" s="13"/>
-      <c r="CJ25" s="89"/>
-      <c r="CK25" s="89"/>
-      <c r="CL25" s="89"/>
-      <c r="CM25" s="89"/>
-      <c r="CN25" s="70"/>
-      <c r="CO25" s="70"/>
-      <c r="CP25" s="70"/>
-      <c r="CQ25" s="70"/>
-      <c r="CR25" s="89"/>
-      <c r="CS25" s="89"/>
-      <c r="CT25" s="89"/>
-      <c r="CU25" s="89"/>
-      <c r="CV25" s="71"/>
-      <c r="CW25" s="71"/>
-      <c r="CX25" s="71"/>
-      <c r="CY25" s="71"/>
-      <c r="CZ25" s="71"/>
-      <c r="DA25" s="71"/>
-      <c r="DB25" s="71"/>
-      <c r="DC25" s="71"/>
-      <c r="DD25" s="71"/>
-      <c r="DE25" s="71"/>
-      <c r="DF25" s="71"/>
-      <c r="DG25" s="71"/>
-      <c r="DH25" s="71"/>
-      <c r="DI25" s="71"/>
-      <c r="DJ25" s="71"/>
-      <c r="DK25" s="71"/>
-      <c r="DL25" s="71"/>
-      <c r="DM25" s="71"/>
-      <c r="DN25" s="71"/>
-      <c r="DO25" s="71"/>
-      <c r="DP25" s="71"/>
-      <c r="DQ25" s="71"/>
-      <c r="DR25" s="71"/>
-      <c r="DS25" s="71"/>
-      <c r="DT25" s="71"/>
-      <c r="DU25" s="71"/>
-      <c r="DV25" s="71"/>
-      <c r="DW25" s="71"/>
-      <c r="DX25" s="71"/>
-      <c r="DY25" s="71"/>
-      <c r="DZ25" s="71"/>
-      <c r="EA25" s="71"/>
-      <c r="EB25" s="71"/>
-      <c r="EC25" s="71"/>
-      <c r="ED25" s="71"/>
-      <c r="EE25" s="71"/>
-      <c r="EF25" s="71"/>
-      <c r="EG25" s="71"/>
-      <c r="EH25" s="71"/>
-      <c r="EI25" s="71"/>
-      <c r="EJ25" s="71"/>
-      <c r="EK25" s="71"/>
-      <c r="EL25" s="71"/>
+      <c r="CJ25" s="95"/>
+      <c r="CK25" s="95"/>
+      <c r="CL25" s="95"/>
+      <c r="CM25" s="95"/>
+      <c r="CN25" s="96"/>
+      <c r="CO25" s="96"/>
+      <c r="CP25" s="96"/>
+      <c r="CQ25" s="96"/>
+      <c r="CR25" s="95"/>
+      <c r="CS25" s="95"/>
+      <c r="CT25" s="95"/>
+      <c r="CU25" s="95"/>
+      <c r="CV25" s="97"/>
+      <c r="CW25" s="97"/>
+      <c r="CX25" s="97"/>
+      <c r="CY25" s="97"/>
+      <c r="CZ25" s="97"/>
+      <c r="DA25" s="97"/>
+      <c r="DB25" s="97"/>
+      <c r="DC25" s="97"/>
+      <c r="DD25" s="97"/>
+      <c r="DE25" s="97"/>
+      <c r="DF25" s="97"/>
+      <c r="DG25" s="97"/>
+      <c r="DH25" s="97"/>
+      <c r="DI25" s="97"/>
+      <c r="DJ25" s="97"/>
+      <c r="DK25" s="97"/>
+      <c r="DL25" s="97"/>
+      <c r="DM25" s="97"/>
+      <c r="DN25" s="97"/>
+      <c r="DO25" s="97"/>
+      <c r="DP25" s="97"/>
+      <c r="DQ25" s="97"/>
+      <c r="DR25" s="97"/>
+      <c r="DS25" s="97"/>
+      <c r="DT25" s="97"/>
+      <c r="DU25" s="97"/>
+      <c r="DV25" s="97"/>
+      <c r="DW25" s="97"/>
+      <c r="DX25" s="97"/>
+      <c r="DY25" s="97"/>
+      <c r="DZ25" s="97"/>
+      <c r="EA25" s="97"/>
+      <c r="EB25" s="97"/>
+      <c r="EC25" s="97"/>
+      <c r="ED25" s="97"/>
+      <c r="EE25" s="97"/>
+      <c r="EF25" s="97"/>
+      <c r="EG25" s="97"/>
+      <c r="EH25" s="97"/>
+      <c r="EI25" s="97"/>
+      <c r="EJ25" s="97"/>
+      <c r="EK25" s="97"/>
+      <c r="EL25" s="97"/>
     </row>
     <row r="26" spans="2:142" ht="18.75">
       <c r="B26" s="13"/>
@@ -22166,61 +22025,61 @@
       <c r="AY37" s="13"/>
       <c r="AZ37" s="13"/>
       <c r="BA37" s="13"/>
-      <c r="CJ37" s="89"/>
-      <c r="CK37" s="89"/>
-      <c r="CL37" s="89"/>
-      <c r="CM37" s="89"/>
-      <c r="CN37" s="70"/>
-      <c r="CO37" s="70"/>
-      <c r="CP37" s="70"/>
-      <c r="CQ37" s="70"/>
-      <c r="CR37" s="89"/>
-      <c r="CS37" s="89"/>
-      <c r="CT37" s="89"/>
-      <c r="CU37" s="89"/>
-      <c r="CV37" s="71"/>
-      <c r="CW37" s="71"/>
-      <c r="CX37" s="71"/>
-      <c r="CY37" s="71"/>
-      <c r="CZ37" s="71"/>
-      <c r="DA37" s="71"/>
-      <c r="DB37" s="71"/>
-      <c r="DC37" s="71"/>
-      <c r="DD37" s="71"/>
-      <c r="DE37" s="71"/>
-      <c r="DF37" s="71"/>
-      <c r="DG37" s="71"/>
-      <c r="DH37" s="71"/>
-      <c r="DI37" s="71"/>
-      <c r="DJ37" s="71"/>
-      <c r="DK37" s="71"/>
-      <c r="DL37" s="71"/>
-      <c r="DM37" s="71"/>
-      <c r="DN37" s="71"/>
-      <c r="DO37" s="71"/>
-      <c r="DP37" s="71"/>
-      <c r="DQ37" s="71"/>
-      <c r="DR37" s="71"/>
-      <c r="DS37" s="71"/>
-      <c r="DT37" s="71"/>
-      <c r="DU37" s="71"/>
-      <c r="DV37" s="71"/>
-      <c r="DW37" s="71"/>
-      <c r="DX37" s="71"/>
-      <c r="DY37" s="71"/>
-      <c r="DZ37" s="71"/>
-      <c r="EA37" s="71"/>
-      <c r="EB37" s="71"/>
-      <c r="EC37" s="71"/>
-      <c r="ED37" s="71"/>
-      <c r="EE37" s="71"/>
-      <c r="EF37" s="71"/>
-      <c r="EG37" s="71"/>
-      <c r="EH37" s="71"/>
-      <c r="EI37" s="71"/>
-      <c r="EJ37" s="71"/>
-      <c r="EK37" s="71"/>
-      <c r="EL37" s="71"/>
+      <c r="CJ37" s="95"/>
+      <c r="CK37" s="95"/>
+      <c r="CL37" s="95"/>
+      <c r="CM37" s="95"/>
+      <c r="CN37" s="96"/>
+      <c r="CO37" s="96"/>
+      <c r="CP37" s="96"/>
+      <c r="CQ37" s="96"/>
+      <c r="CR37" s="95"/>
+      <c r="CS37" s="95"/>
+      <c r="CT37" s="95"/>
+      <c r="CU37" s="95"/>
+      <c r="CV37" s="97"/>
+      <c r="CW37" s="97"/>
+      <c r="CX37" s="97"/>
+      <c r="CY37" s="97"/>
+      <c r="CZ37" s="97"/>
+      <c r="DA37" s="97"/>
+      <c r="DB37" s="97"/>
+      <c r="DC37" s="97"/>
+      <c r="DD37" s="97"/>
+      <c r="DE37" s="97"/>
+      <c r="DF37" s="97"/>
+      <c r="DG37" s="97"/>
+      <c r="DH37" s="97"/>
+      <c r="DI37" s="97"/>
+      <c r="DJ37" s="97"/>
+      <c r="DK37" s="97"/>
+      <c r="DL37" s="97"/>
+      <c r="DM37" s="97"/>
+      <c r="DN37" s="97"/>
+      <c r="DO37" s="97"/>
+      <c r="DP37" s="97"/>
+      <c r="DQ37" s="97"/>
+      <c r="DR37" s="97"/>
+      <c r="DS37" s="97"/>
+      <c r="DT37" s="97"/>
+      <c r="DU37" s="97"/>
+      <c r="DV37" s="97"/>
+      <c r="DW37" s="97"/>
+      <c r="DX37" s="97"/>
+      <c r="DY37" s="97"/>
+      <c r="DZ37" s="97"/>
+      <c r="EA37" s="97"/>
+      <c r="EB37" s="97"/>
+      <c r="EC37" s="97"/>
+      <c r="ED37" s="97"/>
+      <c r="EE37" s="97"/>
+      <c r="EF37" s="97"/>
+      <c r="EG37" s="97"/>
+      <c r="EH37" s="97"/>
+      <c r="EI37" s="97"/>
+      <c r="EJ37" s="97"/>
+      <c r="EK37" s="97"/>
+      <c r="EL37" s="97"/>
     </row>
     <row r="38" spans="2:142" ht="18.75">
       <c r="B38" s="13"/>
@@ -22716,7 +22575,7 @@
       <c r="C47" s="13"/>
       <c r="D47" s="28"/>
       <c r="F47" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
@@ -22772,7 +22631,7 @@
       <c r="D48" s="28"/>
       <c r="F48" s="23"/>
       <c r="G48" s="23" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
@@ -22827,7 +22686,7 @@
       <c r="D49" s="28"/>
       <c r="F49" s="23"/>
       <c r="G49" s="23" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="H49" s="23"/>
       <c r="I49" s="23"/>
@@ -22879,7 +22738,7 @@
     <row r="50" spans="2:142" ht="18.75">
       <c r="F50" s="23"/>
       <c r="G50" s="23" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H50" s="23"/>
       <c r="I50" s="23"/>
@@ -22930,7 +22789,7 @@
     </row>
     <row r="51" spans="2:142" ht="18.75">
       <c r="H51" s="11" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
@@ -22979,7 +22838,7 @@
     </row>
     <row r="52" spans="2:142" ht="18.75">
       <c r="G52" s="11" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M52" s="28"/>
       <c r="N52" s="28"/>
@@ -23028,7 +22887,7 @@
       <c r="C53" s="13"/>
       <c r="D53" s="28"/>
       <c r="H53" s="11" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="M53" s="28"/>
       <c r="N53" s="28"/>
@@ -23077,7 +22936,7 @@
       <c r="C54" s="13"/>
       <c r="D54" s="28"/>
       <c r="G54" s="11" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="M54" s="28"/>
       <c r="N54" s="28"/>
@@ -23126,7 +22985,7 @@
       <c r="C55" s="13"/>
       <c r="D55" s="28"/>
       <c r="H55" s="11" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="M55" s="28"/>
       <c r="N55" s="28"/>
@@ -23215,61 +23074,61 @@
       <c r="AY56" s="13"/>
       <c r="AZ56" s="13"/>
       <c r="BA56" s="13"/>
-      <c r="CJ56" s="89"/>
-      <c r="CK56" s="89"/>
-      <c r="CL56" s="89"/>
-      <c r="CM56" s="89"/>
-      <c r="CN56" s="70"/>
-      <c r="CO56" s="70"/>
-      <c r="CP56" s="70"/>
-      <c r="CQ56" s="70"/>
-      <c r="CR56" s="89"/>
-      <c r="CS56" s="89"/>
-      <c r="CT56" s="89"/>
-      <c r="CU56" s="89"/>
-      <c r="CV56" s="71"/>
-      <c r="CW56" s="71"/>
-      <c r="CX56" s="71"/>
-      <c r="CY56" s="71"/>
-      <c r="CZ56" s="71"/>
-      <c r="DA56" s="71"/>
-      <c r="DB56" s="71"/>
-      <c r="DC56" s="71"/>
-      <c r="DD56" s="71"/>
-      <c r="DE56" s="71"/>
-      <c r="DF56" s="71"/>
-      <c r="DG56" s="71"/>
-      <c r="DH56" s="71"/>
-      <c r="DI56" s="71"/>
-      <c r="DJ56" s="71"/>
-      <c r="DK56" s="71"/>
-      <c r="DL56" s="71"/>
-      <c r="DM56" s="71"/>
-      <c r="DN56" s="71"/>
-      <c r="DO56" s="71"/>
-      <c r="DP56" s="71"/>
-      <c r="DQ56" s="71"/>
-      <c r="DR56" s="71"/>
-      <c r="DS56" s="71"/>
-      <c r="DT56" s="71"/>
-      <c r="DU56" s="71"/>
-      <c r="DV56" s="71"/>
-      <c r="DW56" s="71"/>
-      <c r="DX56" s="71"/>
-      <c r="DY56" s="71"/>
-      <c r="DZ56" s="71"/>
-      <c r="EA56" s="71"/>
-      <c r="EB56" s="71"/>
-      <c r="EC56" s="71"/>
-      <c r="ED56" s="71"/>
-      <c r="EE56" s="71"/>
-      <c r="EF56" s="71"/>
-      <c r="EG56" s="71"/>
-      <c r="EH56" s="71"/>
-      <c r="EI56" s="71"/>
-      <c r="EJ56" s="71"/>
-      <c r="EK56" s="71"/>
-      <c r="EL56" s="71"/>
+      <c r="CJ56" s="95"/>
+      <c r="CK56" s="95"/>
+      <c r="CL56" s="95"/>
+      <c r="CM56" s="95"/>
+      <c r="CN56" s="96"/>
+      <c r="CO56" s="96"/>
+      <c r="CP56" s="96"/>
+      <c r="CQ56" s="96"/>
+      <c r="CR56" s="95"/>
+      <c r="CS56" s="95"/>
+      <c r="CT56" s="95"/>
+      <c r="CU56" s="95"/>
+      <c r="CV56" s="97"/>
+      <c r="CW56" s="97"/>
+      <c r="CX56" s="97"/>
+      <c r="CY56" s="97"/>
+      <c r="CZ56" s="97"/>
+      <c r="DA56" s="97"/>
+      <c r="DB56" s="97"/>
+      <c r="DC56" s="97"/>
+      <c r="DD56" s="97"/>
+      <c r="DE56" s="97"/>
+      <c r="DF56" s="97"/>
+      <c r="DG56" s="97"/>
+      <c r="DH56" s="97"/>
+      <c r="DI56" s="97"/>
+      <c r="DJ56" s="97"/>
+      <c r="DK56" s="97"/>
+      <c r="DL56" s="97"/>
+      <c r="DM56" s="97"/>
+      <c r="DN56" s="97"/>
+      <c r="DO56" s="97"/>
+      <c r="DP56" s="97"/>
+      <c r="DQ56" s="97"/>
+      <c r="DR56" s="97"/>
+      <c r="DS56" s="97"/>
+      <c r="DT56" s="97"/>
+      <c r="DU56" s="97"/>
+      <c r="DV56" s="97"/>
+      <c r="DW56" s="97"/>
+      <c r="DX56" s="97"/>
+      <c r="DY56" s="97"/>
+      <c r="DZ56" s="97"/>
+      <c r="EA56" s="97"/>
+      <c r="EB56" s="97"/>
+      <c r="EC56" s="97"/>
+      <c r="ED56" s="97"/>
+      <c r="EE56" s="97"/>
+      <c r="EF56" s="97"/>
+      <c r="EG56" s="97"/>
+      <c r="EH56" s="97"/>
+      <c r="EI56" s="97"/>
+      <c r="EJ56" s="97"/>
+      <c r="EK56" s="97"/>
+      <c r="EL56" s="97"/>
     </row>
     <row r="57" spans="2:142" ht="18.75">
       <c r="B57" s="13"/>
@@ -24156,61 +24015,61 @@
       <c r="AY72" s="13"/>
       <c r="AZ72" s="13"/>
       <c r="BA72" s="13"/>
-      <c r="CJ72" s="89"/>
-      <c r="CK72" s="89"/>
-      <c r="CL72" s="89"/>
-      <c r="CM72" s="89"/>
-      <c r="CN72" s="70"/>
-      <c r="CO72" s="70"/>
-      <c r="CP72" s="70"/>
-      <c r="CQ72" s="70"/>
-      <c r="CR72" s="89"/>
-      <c r="CS72" s="89"/>
-      <c r="CT72" s="89"/>
-      <c r="CU72" s="89"/>
-      <c r="CV72" s="71"/>
-      <c r="CW72" s="71"/>
-      <c r="CX72" s="71"/>
-      <c r="CY72" s="71"/>
-      <c r="CZ72" s="71"/>
-      <c r="DA72" s="71"/>
-      <c r="DB72" s="71"/>
-      <c r="DC72" s="71"/>
-      <c r="DD72" s="71"/>
-      <c r="DE72" s="71"/>
-      <c r="DF72" s="71"/>
-      <c r="DG72" s="71"/>
-      <c r="DH72" s="71"/>
-      <c r="DI72" s="71"/>
-      <c r="DJ72" s="71"/>
-      <c r="DK72" s="71"/>
-      <c r="DL72" s="71"/>
-      <c r="DM72" s="71"/>
-      <c r="DN72" s="71"/>
-      <c r="DO72" s="71"/>
-      <c r="DP72" s="71"/>
-      <c r="DQ72" s="71"/>
-      <c r="DR72" s="71"/>
-      <c r="DS72" s="71"/>
-      <c r="DT72" s="71"/>
-      <c r="DU72" s="71"/>
-      <c r="DV72" s="71"/>
-      <c r="DW72" s="71"/>
-      <c r="DX72" s="71"/>
-      <c r="DY72" s="71"/>
-      <c r="DZ72" s="71"/>
-      <c r="EA72" s="71"/>
-      <c r="EB72" s="71"/>
-      <c r="EC72" s="71"/>
-      <c r="ED72" s="71"/>
-      <c r="EE72" s="71"/>
-      <c r="EF72" s="71"/>
-      <c r="EG72" s="71"/>
-      <c r="EH72" s="71"/>
-      <c r="EI72" s="71"/>
-      <c r="EJ72" s="71"/>
-      <c r="EK72" s="71"/>
-      <c r="EL72" s="71"/>
+      <c r="CJ72" s="95"/>
+      <c r="CK72" s="95"/>
+      <c r="CL72" s="95"/>
+      <c r="CM72" s="95"/>
+      <c r="CN72" s="96"/>
+      <c r="CO72" s="96"/>
+      <c r="CP72" s="96"/>
+      <c r="CQ72" s="96"/>
+      <c r="CR72" s="95"/>
+      <c r="CS72" s="95"/>
+      <c r="CT72" s="95"/>
+      <c r="CU72" s="95"/>
+      <c r="CV72" s="97"/>
+      <c r="CW72" s="97"/>
+      <c r="CX72" s="97"/>
+      <c r="CY72" s="97"/>
+      <c r="CZ72" s="97"/>
+      <c r="DA72" s="97"/>
+      <c r="DB72" s="97"/>
+      <c r="DC72" s="97"/>
+      <c r="DD72" s="97"/>
+      <c r="DE72" s="97"/>
+      <c r="DF72" s="97"/>
+      <c r="DG72" s="97"/>
+      <c r="DH72" s="97"/>
+      <c r="DI72" s="97"/>
+      <c r="DJ72" s="97"/>
+      <c r="DK72" s="97"/>
+      <c r="DL72" s="97"/>
+      <c r="DM72" s="97"/>
+      <c r="DN72" s="97"/>
+      <c r="DO72" s="97"/>
+      <c r="DP72" s="97"/>
+      <c r="DQ72" s="97"/>
+      <c r="DR72" s="97"/>
+      <c r="DS72" s="97"/>
+      <c r="DT72" s="97"/>
+      <c r="DU72" s="97"/>
+      <c r="DV72" s="97"/>
+      <c r="DW72" s="97"/>
+      <c r="DX72" s="97"/>
+      <c r="DY72" s="97"/>
+      <c r="DZ72" s="97"/>
+      <c r="EA72" s="97"/>
+      <c r="EB72" s="97"/>
+      <c r="EC72" s="97"/>
+      <c r="ED72" s="97"/>
+      <c r="EE72" s="97"/>
+      <c r="EF72" s="97"/>
+      <c r="EG72" s="97"/>
+      <c r="EH72" s="97"/>
+      <c r="EI72" s="97"/>
+      <c r="EJ72" s="97"/>
+      <c r="EK72" s="97"/>
+      <c r="EL72" s="97"/>
     </row>
     <row r="73" spans="2:142" ht="18.75">
       <c r="B73" s="13"/>
@@ -24484,7 +24343,7 @@
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="F78" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G78" s="23"/>
       <c r="H78" s="23"/>
@@ -24540,7 +24399,7 @@
       <c r="D79" s="13"/>
       <c r="F79" s="23"/>
       <c r="G79" s="23" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="H79" s="23"/>
       <c r="I79" s="23"/>
@@ -24595,7 +24454,7 @@
       <c r="D80" s="13"/>
       <c r="F80" s="23"/>
       <c r="G80" s="23" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H80" s="23"/>
       <c r="I80" s="23"/>
@@ -24652,7 +24511,7 @@
       <c r="F81" s="23"/>
       <c r="G81" s="23"/>
       <c r="H81" s="23" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="I81" s="23"/>
       <c r="J81" s="23"/>
@@ -24706,7 +24565,7 @@
       <c r="D82" s="13"/>
       <c r="E82" s="13"/>
       <c r="H82" s="23" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="J82" s="23"/>
       <c r="K82" s="23"/>
@@ -24759,7 +24618,7 @@
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
       <c r="H83" s="23" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="L83" s="13"/>
       <c r="M83" s="13"/>
@@ -26755,6 +26614,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="EC2:EL2"/>
+    <mergeCell ref="AL3:AQ3"/>
+    <mergeCell ref="AR3:BA3"/>
+    <mergeCell ref="DW3:EB3"/>
+    <mergeCell ref="EC3:EL3"/>
+    <mergeCell ref="B2:AK3"/>
+    <mergeCell ref="AL2:AQ2"/>
+    <mergeCell ref="AR2:BA2"/>
+    <mergeCell ref="CJ2:DV3"/>
+    <mergeCell ref="DW2:EB2"/>
+    <mergeCell ref="CJ25:CM25"/>
+    <mergeCell ref="CN25:CQ25"/>
+    <mergeCell ref="CR25:CU25"/>
+    <mergeCell ref="CV25:EL25"/>
+    <mergeCell ref="CJ37:CM37"/>
+    <mergeCell ref="CN37:CQ37"/>
+    <mergeCell ref="CR37:CU37"/>
+    <mergeCell ref="CV37:EL37"/>
     <mergeCell ref="CJ56:CM56"/>
     <mergeCell ref="CN56:CQ56"/>
     <mergeCell ref="CR56:CU56"/>
@@ -26763,24 +26640,6 @@
     <mergeCell ref="CN72:CQ72"/>
     <mergeCell ref="CR72:CU72"/>
     <mergeCell ref="CV72:EL72"/>
-    <mergeCell ref="CJ25:CM25"/>
-    <mergeCell ref="CN25:CQ25"/>
-    <mergeCell ref="CR25:CU25"/>
-    <mergeCell ref="CV25:EL25"/>
-    <mergeCell ref="CJ37:CM37"/>
-    <mergeCell ref="CN37:CQ37"/>
-    <mergeCell ref="CR37:CU37"/>
-    <mergeCell ref="CV37:EL37"/>
-    <mergeCell ref="B2:AK3"/>
-    <mergeCell ref="AL2:AQ2"/>
-    <mergeCell ref="AR2:BA2"/>
-    <mergeCell ref="CJ2:DV3"/>
-    <mergeCell ref="DW2:EB2"/>
-    <mergeCell ref="EC2:EL2"/>
-    <mergeCell ref="AL3:AQ3"/>
-    <mergeCell ref="AR3:BA3"/>
-    <mergeCell ref="DW3:EB3"/>
-    <mergeCell ref="EC3:EL3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.71" right="0.39" top="0.59" bottom="0.59" header="0.39" footer="0.39"/>
